--- a/results/empty-48-48.map_10t_25i_0.5h_processed.xlsx
+++ b/results/empty-48-48.map_10t_25i_0.5h_processed.xlsx
@@ -542,28 +542,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -595,28 +595,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="C3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="D3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="E3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="F3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="G3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="H3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="I3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="C4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="D4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="E4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="F4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="G4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="H4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="I4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="C5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="D5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="E5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="F5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="G5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="H5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="I5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -807,28 +807,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="C7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="D7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="E7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="F7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="G7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="H7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="I7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -860,28 +860,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="C8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="D8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="E8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="F8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="G8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="H8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="I8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="C9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="D9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="E9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="F9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="G9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="H9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="I9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -966,28 +966,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103.63</v>
+        <v>99.974</v>
       </c>
       <c r="C11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="C12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="D12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="E12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="F12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="G12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="I12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1125,28 +1125,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="C13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="D13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="E13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="F13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="G13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="H13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="I13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="C14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="D14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="E14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="F14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="G14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="H14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="I14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="C15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="D15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="E15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="F15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="G15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="H15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="I15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1284,28 +1284,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="C16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="D16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="E16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="F16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="G16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="H16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="I16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1337,28 +1337,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="C17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="D17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="E17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="F17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="G17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="H17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="I17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="G18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1443,28 +1443,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="C19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="D19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="E19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="F19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="G19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="H19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="I19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="C21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="D21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="E21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="F21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="G21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="H21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="I21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1602,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="C22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="D22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="E22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="F22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="G22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="H22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="I22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1655,28 +1655,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="C23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="D23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="E23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="F23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="G23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="H23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="I23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="C24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="D24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="E24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="F24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="G24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="H24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="I24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1761,28 +1761,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="G25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1814,28 +1814,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="C26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="D26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="E26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="F26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="G26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="H26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="I26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1940,31 +1940,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007108058896847069</v>
+        <v>0.006349963950924575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5283837979659438</v>
+        <v>0.4872759960126132</v>
       </c>
       <c r="F2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09133167692925781</v>
+        <v>0.05408570228610188</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2452678673435003</v>
+        <v>0.2380911917425692</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04531227587722242</v>
+        <v>0.02851753169670701</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1356417398201302</v>
+        <v>0.1576228297781199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002930420683696866</v>
+        <v>0.002372231101617217</v>
       </c>
     </row>
     <row r="3">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2703</v>
+        <v>1490</v>
       </c>
       <c r="D3" t="n">
-        <v>1.185095970286056</v>
+        <v>0.6044169283704832</v>
       </c>
       <c r="E3" t="n">
-        <v>1.979357291944325</v>
+        <v>1.228376391925849</v>
       </c>
       <c r="F3" t="n">
-        <v>2703</v>
+        <v>1490</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1582839771872386</v>
+        <v>0.07517107366584241</v>
       </c>
       <c r="H3" t="n">
-        <v>1.502473761327565</v>
+        <v>0.8546652706572786</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1334206453757361</v>
+        <v>0.06390752794686705</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1642096335999668</v>
+        <v>0.2228291084757075</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005282944883219898</v>
+        <v>0.002924152766354382</v>
       </c>
     </row>
     <row r="4">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1388</v>
+        <v>828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5399078349582851</v>
+        <v>0.345247324090451</v>
       </c>
       <c r="E4" t="n">
-        <v>1.276390827959403</v>
+        <v>0.8616547209676355</v>
       </c>
       <c r="F4" t="n">
-        <v>1388</v>
+        <v>828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1044916125247255</v>
+        <v>0.05240606633014977</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7878105735871941</v>
+        <v>0.5642857311759144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05195698689203709</v>
+        <v>0.02825541736092418</v>
       </c>
       <c r="J4" t="n">
-        <v>0.321291406871751</v>
+        <v>0.2100569425383583</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00282968208193779</v>
+        <v>0.001729388604871929</v>
       </c>
     </row>
     <row r="5">
@@ -2045,31 +2045,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009182259091176093</v>
+        <v>0.00954357476439327</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6626630909740925</v>
+        <v>0.7136904889484867</v>
       </c>
       <c r="F5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2585778869688511</v>
+        <v>0.2468563601141796</v>
       </c>
       <c r="H5" t="n">
-        <v>0.266202170168981</v>
+        <v>0.2691127192229033</v>
       </c>
       <c r="I5" t="n">
-        <v>0.105082910740748</v>
+        <v>0.1586526691680774</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01875323452986777</v>
+        <v>0.02393712825141847</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004092547460459173</v>
+        <v>0.00401505921036005</v>
       </c>
     </row>
     <row r="6">
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2874</v>
+        <v>1759</v>
       </c>
       <c r="D6" t="n">
-        <v>1.150390804628842</v>
+        <v>0.7141801523976028</v>
       </c>
       <c r="E6" t="n">
-        <v>2.152194583090022</v>
+        <v>1.397272924077697</v>
       </c>
       <c r="F6" t="n">
-        <v>2874</v>
+        <v>1759</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2598101437324658</v>
+        <v>0.1626848404994234</v>
       </c>
       <c r="H6" t="n">
-        <v>1.327759417355992</v>
+        <v>0.8236919336486608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2539788676658645</v>
+        <v>0.173708466347307</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2878015022724867</v>
+        <v>0.2224696077173576</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006543320138007402</v>
+        <v>0.004005730152130127</v>
       </c>
     </row>
     <row r="7">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1530</v>
+        <v>1005</v>
       </c>
       <c r="D7" t="n">
-        <v>0.606908438494429</v>
+        <v>0.4135484718717635</v>
       </c>
       <c r="E7" t="n">
-        <v>1.200227249995805</v>
+        <v>0.8471384249860421</v>
       </c>
       <c r="F7" t="n">
-        <v>1530</v>
+        <v>1005</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1692537756171077</v>
+        <v>0.1113150942837819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7003539793659002</v>
+        <v>0.475964326877147</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1029743675608188</v>
+        <v>0.08106977492570877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.215453784679994</v>
+        <v>0.1705625110771507</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003530038986355066</v>
+        <v>0.002287195529788733</v>
       </c>
     </row>
     <row r="8">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1388</v>
+        <v>828</v>
       </c>
       <c r="D8" t="n">
-        <v>1.74489723960869</v>
+        <v>0.8893372166203335</v>
       </c>
       <c r="E8" t="n">
-        <v>2.541243690997362</v>
+        <v>1.324791691964492</v>
       </c>
       <c r="F8" t="n">
-        <v>1388</v>
+        <v>828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1072695686016232</v>
+        <v>0.05364832782652229</v>
       </c>
       <c r="H8" t="n">
-        <v>1.822483303025365</v>
+        <v>0.9348553417949006</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05357638269197196</v>
+        <v>0.02875507448334247</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5468717574840412</v>
+        <v>0.3008832493796945</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002920269384048879</v>
+        <v>0.001779610756784678</v>
       </c>
     </row>
     <row r="9">
@@ -2185,11 +2185,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21304</v>
+        <v>21077</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>26.25036615715362</v>
+        <v>25.96017615601886</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00506061757914722</v>
+        <v>0.00769867142662406</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1795109899248928</v>
+        <v>0.2273759880336002</v>
       </c>
       <c r="F10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05622662522364408</v>
+        <v>0.07577722077257931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05084454920142889</v>
+        <v>0.07469839707482606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03874891228042543</v>
+        <v>0.04012328758835793</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0259999172994867</v>
+        <v>0.02506303554400802</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002022020169533789</v>
+        <v>0.003025120357051492</v>
       </c>
     </row>
     <row r="11">
@@ -2245,31 +2245,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1442</v>
+        <v>2645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7214189737569541</v>
+        <v>0.9587218430824578</v>
       </c>
       <c r="E11" t="n">
-        <v>1.10028084507212</v>
+        <v>1.564416898996569</v>
       </c>
       <c r="F11" t="n">
-        <v>1442</v>
+        <v>2645</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0814443799899891</v>
+        <v>0.1167247130069882</v>
       </c>
       <c r="H11" t="n">
-        <v>0.800303416675888</v>
+        <v>1.094086772645824</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06945770443417132</v>
+        <v>0.1078018029220402</v>
       </c>
       <c r="J11" t="n">
-        <v>0.138367707724683</v>
+        <v>0.2251996992854401</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002759806928224862</v>
+        <v>0.005019806674681604</v>
       </c>
     </row>
     <row r="12">
@@ -2280,31 +2280,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>788</v>
+        <v>1501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3228628321085125</v>
+        <v>0.6449048391077667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6051077879965305</v>
+        <v>0.989703321014531</v>
       </c>
       <c r="F12" t="n">
-        <v>788</v>
+        <v>1501</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05854149523656815</v>
+        <v>0.08192000386770815</v>
       </c>
       <c r="H12" t="n">
-        <v>0.366976773715578</v>
+        <v>0.7223943301942199</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03540118364617229</v>
+        <v>0.04683174472302198</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1382782801520079</v>
+        <v>0.127341226907447</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001524658291600645</v>
+        <v>0.002851551864296198</v>
       </c>
     </row>
     <row r="13">
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007681519375182688</v>
+        <v>0.01332985737826675</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3298633770318702</v>
+        <v>0.596300964942202</v>
       </c>
       <c r="F13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1182682387297973</v>
+        <v>0.2116453730268404</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07413510524202138</v>
+        <v>0.1344016197836027</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1054427176713943</v>
+        <v>0.1986917544854805</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02094741025939584</v>
+        <v>0.03135385108180344</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003103871131315827</v>
+        <v>0.005544225452467799</v>
       </c>
     </row>
     <row r="14">
@@ -2350,31 +2350,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1607</v>
+        <v>3594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6508969733258709</v>
+        <v>1.251534400158562</v>
       </c>
       <c r="E14" t="n">
-        <v>1.396282005007379</v>
+        <v>2.623645975952968</v>
       </c>
       <c r="F14" t="n">
-        <v>1607</v>
+        <v>3594</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1459382192697376</v>
+        <v>0.452368529047817</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7471862436505035</v>
+        <v>1.471130995894782</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1378125216579065</v>
+        <v>0.4113862992962822</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3525716598378494</v>
+        <v>0.2597571128280833</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003643534262664616</v>
+        <v>0.007682727766223252</v>
       </c>
     </row>
     <row r="15">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>878</v>
+        <v>2131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3540768964448944</v>
+        <v>0.7309603639878333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7573756329948083</v>
+        <v>1.507925092009827</v>
       </c>
       <c r="F15" t="n">
-        <v>878</v>
+        <v>2131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09920565655920655</v>
+        <v>0.2339141726261005</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4074262781068683</v>
+        <v>0.8611819996731356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06021972559392452</v>
+        <v>0.199884059256874</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1834875532658771</v>
+        <v>0.1958454361883923</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002013741293922067</v>
+        <v>0.004546290962025523</v>
       </c>
     </row>
     <row r="16">
@@ -2420,31 +2420,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>788</v>
+        <v>1501</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8551939290482551</v>
+        <v>1.628646045108326</v>
       </c>
       <c r="E16" t="n">
-        <v>1.384043687954545</v>
+        <v>2.212628781911917</v>
       </c>
       <c r="F16" t="n">
-        <v>788</v>
+        <v>1501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05894285545218736</v>
+        <v>0.08676392084453255</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9003065993310884</v>
+        <v>1.711833360139281</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03585220652166754</v>
+        <v>0.04995688295457512</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3827338407281786</v>
+        <v>0.3517326005967334</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001612432999536395</v>
+        <v>0.003372661536559463</v>
       </c>
     </row>
     <row r="17">
@@ -2455,11 +2455,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19938</v>
+        <v>19784</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>26.24905953707639</v>
+        <v>26.02835806668736</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006792213185690343</v>
+        <v>0.007284395862370729</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2122480979887769</v>
+        <v>0.2488904590718448</v>
       </c>
       <c r="F18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06676007551141083</v>
+        <v>0.09038029599469155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0713380720699206</v>
+        <v>0.07577599829528481</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03607898915652186</v>
+        <v>0.04504840529989451</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02679999929387122</v>
+        <v>0.02600521070417017</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002986357780173421</v>
+        <v>0.002999701187945902</v>
       </c>
     </row>
     <row r="19">
@@ -2515,31 +2515,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2106</v>
+        <v>2743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7517140707932413</v>
+        <v>1.167058124672621</v>
       </c>
       <c r="E19" t="n">
-        <v>1.183889923035167</v>
+        <v>1.767404576996341</v>
       </c>
       <c r="F19" t="n">
-        <v>2106</v>
+        <v>2743</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09467966842930764</v>
+        <v>0.155113304965198</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8638433855958283</v>
+        <v>1.312839220510796</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08290321903768927</v>
+        <v>0.1262054222170264</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1270363332005218</v>
+        <v>0.1516518640564755</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004035127931274474</v>
+        <v>0.005398928304202855</v>
       </c>
     </row>
     <row r="20">
@@ -2550,31 +2550,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1201</v>
+        <v>1408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3975359621690586</v>
+        <v>0.5066726744407788</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7082312169950455</v>
+        <v>0.9123207390075549</v>
       </c>
       <c r="F20" t="n">
-        <v>1201</v>
+        <v>1408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06658677931409329</v>
+        <v>0.1057416171533987</v>
       </c>
       <c r="H20" t="n">
-        <v>0.461347121745348</v>
+        <v>0.583008891902864</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03928208805155009</v>
+        <v>0.04987624182831496</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1322800666093826</v>
+        <v>0.1626515056705102</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002284390386193991</v>
+        <v>0.002705736667849123</v>
       </c>
     </row>
     <row r="21">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01442051585763693</v>
+        <v>0.01107744837645441</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8002410720800981</v>
+        <v>0.5032365069491789</v>
       </c>
       <c r="F21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2511051970068365</v>
+        <v>0.1830246630124748</v>
       </c>
       <c r="H21" t="n">
-        <v>0.154755090479739</v>
+        <v>0.1151554476236925</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3256440595723689</v>
+        <v>0.1640533377649263</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04488985147327185</v>
+        <v>0.02307451248634607</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006633444922044873</v>
+        <v>0.004778796108439565</v>
       </c>
     </row>
     <row r="22">
@@ -2620,31 +2620,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2420</v>
+        <v>3178</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8173705983208492</v>
+        <v>1.220672033028677</v>
       </c>
       <c r="E22" t="n">
-        <v>1.661380031961016</v>
+        <v>2.352152860024944</v>
       </c>
       <c r="F22" t="n">
-        <v>2420</v>
+        <v>3178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2241207659244537</v>
+        <v>0.2919782572425902</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9669837243855</v>
+        <v>1.421581432339735</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2332251280313358</v>
+        <v>0.3191519235260785</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2177931169280782</v>
+        <v>0.293263070168905</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005451766541227698</v>
+        <v>0.007112644263543189</v>
       </c>
     </row>
     <row r="23">
@@ -2655,31 +2655,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1469</v>
+        <v>1651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4537389826728031</v>
+        <v>0.5850624616723508</v>
       </c>
       <c r="E23" t="n">
-        <v>1.009755687089637</v>
+        <v>1.217797777964734</v>
       </c>
       <c r="F23" t="n">
-        <v>1469</v>
+        <v>1651</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1660704622045159</v>
+        <v>0.1785922115668654</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5452662414172664</v>
+        <v>0.6817392447264865</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1147333758417517</v>
+        <v>0.1182117265416309</v>
       </c>
       <c r="J23" t="n">
-        <v>0.171979684731923</v>
+        <v>0.2261574940057471</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003288001171313226</v>
+        <v>0.003610218642279506</v>
       </c>
     </row>
     <row r="24">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1201</v>
+        <v>1408</v>
       </c>
       <c r="D24" t="n">
-        <v>1.076579388231039</v>
+        <v>1.574742976459675</v>
       </c>
       <c r="E24" t="n">
-        <v>1.596634860034101</v>
+        <v>2.377770998049527</v>
       </c>
       <c r="F24" t="n">
-        <v>1201</v>
+        <v>1408</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06853766017593443</v>
+        <v>0.1059793481836095</v>
       </c>
       <c r="H24" t="n">
-        <v>1.143237744923681</v>
+        <v>1.651798444218002</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04053957457654178</v>
+        <v>0.05218396987766027</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3348853506613523</v>
+        <v>0.5565622699214146</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00251687818672508</v>
+        <v>0.002924953121691942</v>
       </c>
     </row>
     <row r="25">
@@ -2725,11 +2725,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20353</v>
+        <v>22347</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24.95406819402706</v>
+        <v>26.02196094405372</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2750,31 +2750,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006545551354065537</v>
+        <v>0.006179749616421759</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2170426519587636</v>
+        <v>0.1896328210132197</v>
       </c>
       <c r="F26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07164721109438688</v>
+        <v>0.06168260076083243</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06966503942385316</v>
+        <v>0.06119522522203624</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03862964350264519</v>
+        <v>0.03384802874643356</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02644362638238817</v>
+        <v>0.02334420417901129</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002858803607523441</v>
+        <v>0.00247285095974803</v>
       </c>
     </row>
     <row r="27">
@@ -2785,31 +2785,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2196</v>
+        <v>1913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8102011570008472</v>
+        <v>0.7206139185000211</v>
       </c>
       <c r="E27" t="n">
-        <v>1.290924117085524</v>
+        <v>1.121201934991404</v>
       </c>
       <c r="F27" t="n">
-        <v>2196</v>
+        <v>1913</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1214497471228242</v>
+        <v>0.0887369925621897</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9277763884747401</v>
+        <v>0.8175536268390715</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1074112681671977</v>
+        <v>0.08289197948761284</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1182189566316083</v>
+        <v>0.117062815814279</v>
       </c>
       <c r="K27" t="n">
-        <v>0.004181657102890313</v>
+        <v>0.003648710902780294</v>
       </c>
     </row>
     <row r="28">
@@ -2820,31 +2820,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1185</v>
+        <v>1065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4056979547021911</v>
+        <v>0.4045103932730854</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7347897810395807</v>
+        <v>0.6940456229494885</v>
       </c>
       <c r="F28" t="n">
-        <v>1185</v>
+        <v>1065</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07971696765162051</v>
+        <v>0.06256989506073296</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4704681250732392</v>
+        <v>0.4612431639106944</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04191962885670364</v>
+        <v>0.03679336630739272</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1336540686897933</v>
+        <v>0.1251413250574842</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002307402435690165</v>
+        <v>0.002033103606663644</v>
       </c>
     </row>
     <row r="29">
@@ -2855,31 +2855,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01269481237977743</v>
+        <v>0.01134785870090127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6800023699179292</v>
+        <v>0.6128301960416138</v>
       </c>
       <c r="F29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2219108446734026</v>
+        <v>0.17191744572483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1348785349400714</v>
+        <v>0.1120825038524345</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2665209689876065</v>
+        <v>0.2853753298986703</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03605762019287795</v>
+        <v>0.02690499823074788</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005830681417137384</v>
+        <v>0.004422736587002873</v>
       </c>
     </row>
     <row r="30">
@@ -2890,31 +2890,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2463</v>
+        <v>2406</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8464281314518303</v>
+        <v>0.8966716652503237</v>
       </c>
       <c r="E30" t="n">
-        <v>1.727383238030598</v>
+        <v>1.791530734975822</v>
       </c>
       <c r="F30" t="n">
-        <v>2463</v>
+        <v>2406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2254739387426525</v>
+        <v>0.2208963457960635</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9951091186376289</v>
+        <v>1.047739812522195</v>
       </c>
       <c r="I30" t="n">
-        <v>0.247325633186847</v>
+        <v>0.2655145111493766</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2398737064795569</v>
+        <v>0.2377900758292526</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005565336905419827</v>
+        <v>0.005221743020229042</v>
       </c>
     </row>
     <row r="31">
@@ -2925,31 +2925,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1383</v>
+        <v>1448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4381701673846692</v>
+        <v>0.5494227629387751</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9680248750373721</v>
+        <v>1.134097740054131</v>
       </c>
       <c r="F31" t="n">
-        <v>1383</v>
+        <v>1448</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1578494949499145</v>
+        <v>0.1615916901500896</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5220402834238485</v>
+        <v>0.6407632814953104</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1077267389046028</v>
+        <v>0.1354113691486418</v>
       </c>
       <c r="J31" t="n">
-        <v>0.169412111514248</v>
+        <v>0.1846492548938841</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003179347491823137</v>
+        <v>0.00314519926905632</v>
       </c>
     </row>
     <row r="32">
@@ -2960,31 +2960,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1185</v>
+        <v>1065</v>
       </c>
       <c r="D32" t="n">
-        <v>1.09636158705689</v>
+        <v>1.096654744469561</v>
       </c>
       <c r="E32" t="n">
-        <v>1.687426546006463</v>
+        <v>1.579861139063723</v>
       </c>
       <c r="F32" t="n">
-        <v>1185</v>
+        <v>1065</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08304896508343518</v>
+        <v>0.06386074179317802</v>
       </c>
       <c r="H32" t="n">
-        <v>1.161903884611093</v>
+        <v>1.153892542351969</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04278600972611457</v>
+        <v>0.03802177531179041</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3905977020040154</v>
+        <v>0.3155075605027378</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002386567066423595</v>
+        <v>0.00220483192242682</v>
       </c>
     </row>
     <row r="33">
@@ -2995,11 +2995,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21213</v>
+        <v>19547</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>25.38763896899763</v>
+        <v>25.89197546709329</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007566747022792697</v>
+        <v>0.007257905905134976</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2552889289800078</v>
+        <v>0.2035679440014064</v>
       </c>
       <c r="F34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08900337899103761</v>
+        <v>0.06276979448739439</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08198048686608672</v>
+        <v>0.07112881587818265</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04515230993274599</v>
+        <v>0.03471933305263519</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02658954658545554</v>
+        <v>0.02373407443519682</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003339304006658494</v>
+        <v>0.00284740561619401</v>
       </c>
     </row>
     <row r="35">
@@ -3055,31 +3055,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2884</v>
+        <v>2288</v>
       </c>
       <c r="D35" t="n">
-        <v>1.041555747739039</v>
+        <v>0.7613407734315842</v>
       </c>
       <c r="E35" t="n">
-        <v>1.644098808057606</v>
+        <v>1.320054879994132</v>
       </c>
       <c r="F35" t="n">
-        <v>2884</v>
+        <v>2288</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1438699079444632</v>
+        <v>0.1021317961858585</v>
       </c>
       <c r="H35" t="n">
-        <v>1.193063776823692</v>
+        <v>0.8815717613324523</v>
       </c>
       <c r="I35" t="n">
-        <v>0.126074640545994</v>
+        <v>0.09236124367453158</v>
       </c>
       <c r="J35" t="n">
-        <v>0.159125727484934</v>
+        <v>0.2266612639650702</v>
       </c>
       <c r="K35" t="n">
-        <v>0.005479034036397934</v>
+        <v>0.004293486243113875</v>
       </c>
     </row>
     <row r="36">
@@ -3090,31 +3090,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1514</v>
+        <v>1231</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6137427043868229</v>
+        <v>0.3985397304641083</v>
       </c>
       <c r="E36" t="n">
-        <v>1.005867694038898</v>
+        <v>0.7000217030290514</v>
       </c>
       <c r="F36" t="n">
-        <v>1514</v>
+        <v>1231</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09610865730792284</v>
+        <v>0.0658005439909175</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6938563461881131</v>
+        <v>0.462528383359313</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04816835501696914</v>
+        <v>0.03754140809178352</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1566137038171291</v>
+        <v>0.1250449396902695</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002891997108235955</v>
+        <v>0.002361287595704198</v>
       </c>
     </row>
     <row r="37">
@@ -3125,31 +3125,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0134772335877642</v>
+        <v>0.01665548200253397</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7746778180589899</v>
+        <v>1.022204637993127</v>
       </c>
       <c r="F37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.337541128275916</v>
+        <v>0.2626745132729411</v>
       </c>
       <c r="H37" t="n">
-        <v>0.144737949827686</v>
+        <v>0.2723111968953162</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2383166202344</v>
+        <v>0.4099111404502764</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03216224152129143</v>
+        <v>0.05132310325279832</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00618106871843338</v>
+        <v>0.006558581837452948</v>
       </c>
     </row>
     <row r="38">
@@ -3160,31 +3160,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3321</v>
+        <v>3400</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1420858935453</v>
+        <v>0.998999664792791</v>
       </c>
       <c r="E38" t="n">
-        <v>2.38132437702734</v>
+        <v>2.322747115977108</v>
       </c>
       <c r="F38" t="n">
-        <v>3321</v>
+        <v>3400</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3006668335292488</v>
+        <v>0.3125609017442912</v>
       </c>
       <c r="H38" t="n">
-        <v>1.3453525173245</v>
+        <v>1.211562220705673</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3167536041000858</v>
+        <v>0.4978505223989487</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3921149763045833</v>
+        <v>0.272965154144913</v>
       </c>
       <c r="K38" t="n">
-        <v>0.007468503317795694</v>
+        <v>0.007432193146087229</v>
       </c>
     </row>
     <row r="39">
@@ -3195,31 +3195,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1914</v>
+        <v>2078</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6055436037713662</v>
+        <v>0.5477220009779558</v>
       </c>
       <c r="E39" t="n">
-        <v>1.297533590928651</v>
+        <v>1.387697853031568</v>
       </c>
       <c r="F39" t="n">
-        <v>1914</v>
+        <v>2078</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2101081209257245</v>
+        <v>0.2320891009876505</v>
       </c>
       <c r="H39" t="n">
-        <v>0.72081496368628</v>
+        <v>0.6788362952647731</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1454930508043617</v>
+        <v>0.2666662831325084</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2058264673687518</v>
+        <v>0.1930495949927717</v>
       </c>
       <c r="K39" t="n">
-        <v>0.004393252893351018</v>
+        <v>0.004492720705457032</v>
       </c>
     </row>
     <row r="40">
@@ -3230,31 +3230,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1514</v>
+        <v>1231</v>
       </c>
       <c r="D40" t="n">
-        <v>1.536978729185648</v>
+        <v>1.014909025165252</v>
       </c>
       <c r="E40" t="n">
-        <v>2.234894208959304</v>
+        <v>1.512951805954799</v>
       </c>
       <c r="F40" t="n">
-        <v>1514</v>
+        <v>1231</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09854952618479729</v>
+        <v>0.06875119416508824</v>
       </c>
       <c r="H40" t="n">
-        <v>1.619191021891311</v>
+        <v>1.082204245380126</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04962684132624418</v>
+        <v>0.03918792551849037</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4557526301359758</v>
+        <v>0.3130673838313669</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003123941365629435</v>
+        <v>0.002545221010223031</v>
       </c>
     </row>
     <row r="41">
@@ -3265,11 +3265,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21067</v>
+        <v>19572</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>25.13672106992453</v>
+        <v>25.41323394200299</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3290,31 +3290,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006914565339684486</v>
+        <v>0.007149581564590335</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3248361930018291</v>
+        <v>0.2463882970623672</v>
       </c>
       <c r="F42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.076387073029764</v>
+        <v>0.08355814346577972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0685995613457635</v>
+        <v>0.07387046155054122</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04094000870827585</v>
+        <v>0.04555811174213886</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1285436392063275</v>
+        <v>0.032000009319745</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002734087174758315</v>
+        <v>0.002958554541692138</v>
       </c>
     </row>
     <row r="43">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2514</v>
+        <v>2452</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9875694314250723</v>
+        <v>1.006787748076022</v>
       </c>
       <c r="E43" t="n">
-        <v>1.54601171403192</v>
+        <v>1.553911008988507</v>
       </c>
       <c r="F43" t="n">
-        <v>2514</v>
+        <v>2452</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1225251645082608</v>
+        <v>0.1251846526283771</v>
       </c>
       <c r="H43" t="n">
-        <v>1.119944915641099</v>
+        <v>1.134279055171646</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1209103555884212</v>
+        <v>0.1163531884085387</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1632823194377124</v>
+        <v>0.1591310419607908</v>
       </c>
       <c r="K43" t="n">
-        <v>0.004868830437771976</v>
+        <v>0.005015236907638609</v>
       </c>
     </row>
     <row r="44">
@@ -3360,31 +3360,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1314</v>
+        <v>1371</v>
       </c>
       <c r="D44" t="n">
-        <v>0.498448220663704</v>
+        <v>0.4964207350276411</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8630849359324202</v>
+        <v>0.8843998069642112</v>
       </c>
       <c r="F44" t="n">
-        <v>1314</v>
+        <v>1371</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08119518053717911</v>
+        <v>0.08780035481322557</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5679105550516397</v>
+        <v>0.5695694730384275</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0445261049317196</v>
+        <v>0.05263634060975164</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1593825237359852</v>
+        <v>0.1638091887580231</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002564719994552433</v>
+        <v>0.002589089446701109</v>
       </c>
     </row>
     <row r="45">
@@ -3395,31 +3395,31 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009972675587050617</v>
+        <v>0.01047701062634587</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4389969180338085</v>
+        <v>0.4715644919779152</v>
       </c>
       <c r="F45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1647403502138332</v>
+        <v>0.1809588891919702</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1046116626821458</v>
+        <v>0.1086987145245075</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1289300092030317</v>
+        <v>0.1391290744068101</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02531065582297742</v>
+        <v>0.0261207630392164</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004362577921710908</v>
+        <v>0.00445493939332664</v>
       </c>
     </row>
     <row r="46">
@@ -3430,31 +3430,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3204</v>
+        <v>2893</v>
       </c>
       <c r="D46" t="n">
-        <v>1.238509090966545</v>
+        <v>1.155329288099892</v>
       </c>
       <c r="E46" t="n">
-        <v>2.374514656956308</v>
+        <v>2.170831074006855</v>
       </c>
       <c r="F46" t="n">
-        <v>3204</v>
+        <v>2893</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2907066966872662</v>
+        <v>0.2648583297850564</v>
       </c>
       <c r="H46" t="n">
-        <v>1.439133937819861</v>
+        <v>1.335663346690126</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3289761848282069</v>
+        <v>0.2711266407277435</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2901631265413016</v>
+        <v>0.2755747123155743</v>
       </c>
       <c r="K46" t="n">
-        <v>0.007094488595612347</v>
+        <v>0.006432258756831288</v>
       </c>
     </row>
     <row r="47">
@@ -3465,31 +3465,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1736</v>
+        <v>1685</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6465210946043953</v>
+        <v>0.5951839429326355</v>
       </c>
       <c r="E47" t="n">
-        <v>1.318949863081798</v>
+        <v>1.331172227975912</v>
       </c>
       <c r="F47" t="n">
-        <v>1736</v>
+        <v>1685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1938402327941731</v>
+        <v>0.1857805285835639</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7555696916533634</v>
+        <v>0.6982311687897891</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1329803965054452</v>
+        <v>0.1232191357994452</v>
       </c>
       <c r="J47" t="n">
-        <v>0.22285646724049</v>
+        <v>0.3104703219141811</v>
       </c>
       <c r="K47" t="n">
-        <v>0.003841156139969826</v>
+        <v>0.00367656524758786</v>
       </c>
     </row>
     <row r="48">
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1314</v>
+        <v>1371</v>
       </c>
       <c r="D48" t="n">
-        <v>1.59113974228967</v>
+        <v>1.611582744168118</v>
       </c>
       <c r="E48" t="n">
-        <v>2.268305766978301</v>
+        <v>2.400610968004912</v>
       </c>
       <c r="F48" t="n">
-        <v>1314</v>
+        <v>1371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08458888251334429</v>
+        <v>0.09157143568154424</v>
       </c>
       <c r="H48" t="n">
-        <v>1.664933715714142</v>
+        <v>1.687635892187245</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04634635243564844</v>
+        <v>0.0548150239046663</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4620364733273163</v>
+        <v>0.5555658470839262</v>
       </c>
       <c r="K48" t="n">
-        <v>0.002807409735396504</v>
+        <v>0.002912908792495728</v>
       </c>
     </row>
     <row r="49">
@@ -3535,11 +3535,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19310</v>
+        <v>21761</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>25.51795300305821</v>
+        <v>26.06398050184362</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006367077119648457</v>
+        <v>0.008383895852603018</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1979999069590122</v>
+        <v>0.2368575389264151</v>
       </c>
       <c r="F50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06481747480574995</v>
+        <v>0.07542017265222967</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06417591939680278</v>
+        <v>0.08572675124742091</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03554748394526541</v>
+        <v>0.03716450487263501</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02352857519872487</v>
+        <v>0.02478329034056515</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002628361224196851</v>
+        <v>0.003545098472386599</v>
       </c>
     </row>
     <row r="51">
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2078</v>
+        <v>3551</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8148033812176436</v>
+        <v>1.074304715381004</v>
       </c>
       <c r="E51" t="n">
-        <v>1.257933960994706</v>
+        <v>1.624268120969646</v>
       </c>
       <c r="F51" t="n">
-        <v>2078</v>
+        <v>3551</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09593483211938292</v>
+        <v>0.1217962151858956</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9254186693578959</v>
+        <v>1.246232371544465</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08863203832879663</v>
+        <v>0.1141736673889682</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1320825456641614</v>
+        <v>0.1151622659526765</v>
       </c>
       <c r="K51" t="n">
-        <v>0.003973046434111893</v>
+        <v>0.007185686496086419</v>
       </c>
     </row>
     <row r="52">
@@ -3630,31 +3630,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1160</v>
+        <v>2001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4007060959702358</v>
+        <v>0.5622162380022928</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7084155090851709</v>
+        <v>0.9232919119531289</v>
       </c>
       <c r="F52" t="n">
-        <v>1160</v>
+        <v>2001</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06544818042311817</v>
+        <v>0.08748059626668692</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4613147008931264</v>
+        <v>0.6627207940910012</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03746051935013384</v>
+        <v>0.0419754491886124</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1356835040496662</v>
+        <v>0.1160360681824386</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002218004665337503</v>
+        <v>0.00409534783102572</v>
       </c>
     </row>
     <row r="53">
@@ -3665,31 +3665,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01191914442460984</v>
+        <v>0.01933906227350235</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6465070070698857</v>
+        <v>1.103289938997477</v>
       </c>
       <c r="F53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1991834781365469</v>
+        <v>0.3523703431710601</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1260608599986881</v>
+        <v>0.2118715643882751</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2621807951945812</v>
+        <v>0.448783791041933</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0402040674816817</v>
+        <v>0.05736953625455499</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005323453224264085</v>
+        <v>0.008718433091416955</v>
       </c>
     </row>
     <row r="54">
@@ -3700,31 +3700,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2592</v>
+        <v>5593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9099168414250016</v>
+        <v>1.491733408998698</v>
       </c>
       <c r="E54" t="n">
-        <v>1.888453769963235</v>
+        <v>3.300634451094083</v>
       </c>
       <c r="F54" t="n">
-        <v>2592</v>
+        <v>5593</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2403594768838957</v>
+        <v>0.4915839732857421</v>
       </c>
       <c r="H54" t="n">
-        <v>1.07500095712021</v>
+        <v>1.824957373319194</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3062403986696154</v>
+        <v>0.6951561438618228</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2461357964202762</v>
+        <v>0.2436748362379149</v>
       </c>
       <c r="K54" t="n">
-        <v>0.005856172880157828</v>
+        <v>0.0120080728083849</v>
       </c>
     </row>
     <row r="55">
@@ -3735,31 +3735,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1574</v>
+        <v>3649</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4778903394471854</v>
+        <v>0.8982723467051983</v>
       </c>
       <c r="E55" t="n">
-        <v>1.115410758997314</v>
+        <v>2.171504426049069</v>
       </c>
       <c r="F55" t="n">
-        <v>1574</v>
+        <v>3649</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1763187401229516</v>
+        <v>0.399605724378489</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5773929104907438</v>
+        <v>1.124277003924362</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1669142958708107</v>
+        <v>0.4283305304124951</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1821868371916935</v>
+        <v>0.1880740476772189</v>
       </c>
       <c r="K55" t="n">
-        <v>0.003548157517798245</v>
+        <v>0.008102700347080827</v>
       </c>
     </row>
     <row r="56">
@@ -3770,31 +3770,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1160</v>
+        <v>2001</v>
       </c>
       <c r="D56" t="n">
-        <v>1.088632103754207</v>
+        <v>1.38436432229355</v>
       </c>
       <c r="E56" t="n">
-        <v>1.585976892965846</v>
+        <v>1.861252213013358</v>
       </c>
       <c r="F56" t="n">
-        <v>1160</v>
+        <v>2001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0700038205832243</v>
+        <v>0.08794593799393624</v>
       </c>
       <c r="H56" t="n">
-        <v>1.151016214280389</v>
+        <v>1.483116792165674</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03835152927786112</v>
+        <v>0.0431735155871138</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3171089831739664</v>
+        <v>0.2317428939277306</v>
       </c>
       <c r="K56" t="n">
-        <v>0.002895181183703244</v>
+        <v>0.003967837779782712</v>
       </c>
     </row>
     <row r="57">
@@ -3805,11 +3805,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21929</v>
+        <v>21848</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>25.07572242734022</v>
+        <v>25.58779821335338</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3830,31 +3830,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00641756400000304</v>
+        <v>0.00718582677654922</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2072345418855548</v>
+        <v>0.215350867016241</v>
       </c>
       <c r="F58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0675833155401051</v>
+        <v>0.07275957486126572</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06561806576792151</v>
+        <v>0.07055568450596184</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03911517967935652</v>
+        <v>0.03733896394260228</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02476270112674683</v>
+        <v>0.02361977961845696</v>
       </c>
       <c r="K58" t="n">
-        <v>0.002687142579816282</v>
+        <v>0.002881381544284523</v>
       </c>
     </row>
     <row r="59">
@@ -3865,31 +3865,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2007</v>
+        <v>2792</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7595433798851445</v>
+        <v>1.033937316271476</v>
       </c>
       <c r="E59" t="n">
-        <v>1.192120375926606</v>
+        <v>1.560912513989024</v>
       </c>
       <c r="F59" t="n">
-        <v>2007</v>
+        <v>2792</v>
       </c>
       <c r="G59" t="n">
-        <v>0.09822716377675533</v>
+        <v>0.1246153368847445</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8663195538101718</v>
+        <v>1.18035561661236</v>
       </c>
       <c r="I59" t="n">
-        <v>0.08627837034873664</v>
+        <v>0.1212963676080108</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1264779414050281</v>
+        <v>0.112802772084251</v>
       </c>
       <c r="K59" t="n">
-        <v>0.003874817746691406</v>
+        <v>0.005389083526097238</v>
       </c>
     </row>
     <row r="60">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1159</v>
+        <v>1426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4142012879019603</v>
+        <v>0.5263771974714473</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7246764099691063</v>
+        <v>0.8613751090597361</v>
       </c>
       <c r="F60" t="n">
-        <v>1159</v>
+        <v>1426</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06862755108159035</v>
+        <v>0.08324081858154386</v>
       </c>
       <c r="H60" t="n">
-        <v>0.476615278981626</v>
+        <v>0.6010541586438194</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04058547434397042</v>
+        <v>0.04469759587664157</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1302804950391874</v>
+        <v>0.1217033767607063</v>
       </c>
       <c r="K60" t="n">
-        <v>0.002259009284898639</v>
+        <v>0.002683551050722599</v>
       </c>
     </row>
     <row r="61">
@@ -3935,31 +3935,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01111755915917456</v>
+        <v>0.01283506618347019</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6565973960096017</v>
+        <v>0.7567875639069825</v>
       </c>
       <c r="F61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1852767338277772</v>
+        <v>0.2067471324699</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1154998718993738</v>
+        <v>0.1311939744045958</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1995480405166745</v>
+        <v>0.3690331723773852</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1386634057853371</v>
+        <v>0.03017967974301428</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004992662579752505</v>
+        <v>0.005318929092027247</v>
       </c>
     </row>
     <row r="62">
@@ -3970,31 +3970,31 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2296</v>
+        <v>4025</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9423580967122689</v>
+        <v>1.436474941205233</v>
       </c>
       <c r="E62" t="n">
-        <v>1.787266638944857</v>
+        <v>2.844363979063928</v>
       </c>
       <c r="F62" t="n">
-        <v>2296</v>
+        <v>4025</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2107516649411991</v>
+        <v>0.3651080313138664</v>
       </c>
       <c r="H62" t="n">
-        <v>1.085618438199162</v>
+        <v>1.689356722985394</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2275263877818361</v>
+        <v>0.494598145596683</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2450413622427732</v>
+        <v>0.2624789824476466</v>
       </c>
       <c r="K62" t="n">
-        <v>0.005194711382500827</v>
+        <v>0.008831734419800341</v>
       </c>
     </row>
     <row r="63">
@@ -4005,31 +4005,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1455</v>
+        <v>2117</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4868183213984594</v>
+        <v>0.7427141178632155</v>
       </c>
       <c r="E63" t="n">
-        <v>1.062009306042455</v>
+        <v>1.515875653014518</v>
       </c>
       <c r="F63" t="n">
-        <v>1455</v>
+        <v>2117</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1618568593403324</v>
+        <v>0.2318938877433538</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5765305075328797</v>
+        <v>0.870684965280816</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1230666137998924</v>
+        <v>0.196546194376424</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1889118206454441</v>
+        <v>0.1998223288683221</v>
       </c>
       <c r="K63" t="n">
-        <v>0.003290837747044861</v>
+        <v>0.004545020055957139</v>
       </c>
     </row>
     <row r="64">
@@ -4040,31 +4040,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1159</v>
+        <v>1426</v>
       </c>
       <c r="D64" t="n">
-        <v>1.099059620290063</v>
+        <v>1.513301884871908</v>
       </c>
       <c r="E64" t="n">
-        <v>1.600528251961805</v>
+        <v>2.065417275996879</v>
       </c>
       <c r="F64" t="n">
-        <v>1159</v>
+        <v>1426</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06996687722858042</v>
+        <v>0.08701405662577599</v>
       </c>
       <c r="H64" t="n">
-        <v>1.162358786677942</v>
+        <v>1.592797196703032</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04147413978353143</v>
+        <v>0.04715425497852266</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3177385309245437</v>
+        <v>0.3269301078980789</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002364324871450663</v>
+        <v>0.003003136720508337</v>
       </c>
     </row>
     <row r="65">
@@ -4075,11 +4075,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21587</v>
+        <v>20869</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>25.0621335391188</v>
+        <v>25.30939902679529</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -4100,31 +4100,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008010891615413129</v>
+        <v>0.006433055736124516</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2632370350183919</v>
+        <v>0.205270744045265</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09040385636035353</v>
+        <v>0.0648158238036558</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08536435710266232</v>
+        <v>0.06516013690270483</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04562454542610794</v>
+        <v>0.03893653419800103</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02837545203510672</v>
+        <v>0.0261913490248844</v>
       </c>
       <c r="K66" t="n">
-        <v>0.003602804150432348</v>
+        <v>0.002577151521109045</v>
       </c>
     </row>
     <row r="67">
@@ -4135,31 +4135,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3026</v>
+        <v>1706</v>
       </c>
       <c r="D67" t="n">
-        <v>1.065513763809577</v>
+        <v>0.6931599579984322</v>
       </c>
       <c r="E67" t="n">
-        <v>1.756088590016589</v>
+        <v>1.099987403955311</v>
       </c>
       <c r="F67" t="n">
-        <v>3026</v>
+        <v>1706</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1421125065535307</v>
+        <v>0.08953124028630555</v>
       </c>
       <c r="H67" t="n">
-        <v>1.223852887516841</v>
+        <v>0.7850308440392837</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1237836079671979</v>
+        <v>0.07465684216003865</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2440723075997084</v>
+        <v>0.1374920334201306</v>
       </c>
       <c r="K67" t="n">
-        <v>0.00577777938451618</v>
+        <v>0.003528886241838336</v>
       </c>
     </row>
     <row r="68">
@@ -4170,31 +4170,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1573</v>
+        <v>901</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4905008648056537</v>
+        <v>0.3492068303748965</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8778581949882209</v>
+        <v>0.6387337200576439</v>
       </c>
       <c r="F68" t="n">
-        <v>1573</v>
+        <v>901</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09615720715373755</v>
+        <v>0.05892889085225761</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5730035690357909</v>
+        <v>0.398546876385808</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05033477558754385</v>
+        <v>0.03283148445188999</v>
       </c>
       <c r="J68" t="n">
-        <v>0.146893646218814</v>
+        <v>0.1416811549570411</v>
       </c>
       <c r="K68" t="n">
-        <v>0.002996876020915806</v>
+        <v>0.001694246777333319</v>
       </c>
     </row>
     <row r="69">
@@ -4205,31 +4205,31 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01676849788054824</v>
+        <v>0.01121463486924767</v>
       </c>
       <c r="E69" t="n">
-        <v>1.026234695920721</v>
+        <v>0.541320267948322</v>
       </c>
       <c r="F69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4021086144493893</v>
+        <v>0.1801401077536866</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1862729880958796</v>
+        <v>0.112002743058838</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3603066367795691</v>
+        <v>0.2018279129406437</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0489922781707719</v>
+        <v>0.03005892981309444</v>
       </c>
       <c r="K69" t="n">
-        <v>0.007903265533968806</v>
+        <v>0.004622112843208015</v>
       </c>
     </row>
     <row r="70">
@@ -4240,31 +4240,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4628</v>
+        <v>1892</v>
       </c>
       <c r="D70" t="n">
-        <v>1.376436433405615</v>
+        <v>0.7389482951257378</v>
       </c>
       <c r="E70" t="n">
-        <v>3.016775237978436</v>
+        <v>1.462393422028981</v>
       </c>
       <c r="F70" t="n">
-        <v>4628</v>
+        <v>1892</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4221122743329033</v>
+        <v>0.1796511334832758</v>
       </c>
       <c r="H70" t="n">
-        <v>1.670148006640375</v>
+        <v>0.860299656400457</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6049211595673114</v>
+        <v>0.1765708070015535</v>
       </c>
       <c r="J70" t="n">
-        <v>0.282706719241105</v>
+        <v>0.2302574394270778</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01023280096706003</v>
+        <v>0.00427283113822341</v>
       </c>
     </row>
     <row r="71">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2600</v>
+        <v>1013</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7268710096832365</v>
+        <v>0.3819200564175844</v>
       </c>
       <c r="E71" t="n">
-        <v>1.691965610021725</v>
+        <v>0.8154964329442009</v>
       </c>
       <c r="F71" t="n">
-        <v>2600</v>
+        <v>1013</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2884936077753082</v>
+        <v>0.1139572269748896</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8858590727904812</v>
+        <v>0.4452790494542569</v>
       </c>
       <c r="I71" t="n">
-        <v>0.283003244549036</v>
+        <v>0.0715651020873338</v>
       </c>
       <c r="J71" t="n">
-        <v>0.213696341146715</v>
+        <v>0.1765337061369792</v>
       </c>
       <c r="K71" t="n">
-        <v>0.00587996409740299</v>
+        <v>0.002257568412460387</v>
       </c>
     </row>
     <row r="72">
@@ -4310,31 +4310,31 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1573</v>
+        <v>901</v>
       </c>
       <c r="D72" t="n">
-        <v>1.322411071625538</v>
+        <v>0.8943217964842916</v>
       </c>
       <c r="E72" t="n">
-        <v>1.94087894493714</v>
+        <v>1.41134409699589</v>
       </c>
       <c r="F72" t="n">
-        <v>1573</v>
+        <v>901</v>
       </c>
       <c r="G72" t="n">
-        <v>0.09752727975137532</v>
+        <v>0.06027721019927412</v>
       </c>
       <c r="H72" t="n">
-        <v>1.406597534776665</v>
+        <v>0.9440052015706897</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0509412739193067</v>
+        <v>0.03384505829308182</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3736903052777052</v>
+        <v>0.3659464765805751</v>
       </c>
       <c r="K72" t="n">
-        <v>0.003225058550015092</v>
+        <v>0.001848850166425109</v>
       </c>
     </row>
     <row r="73">
@@ -4345,11 +4345,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22521</v>
+        <v>21844</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>25.61654001206625</v>
+        <v>25.48875334206969</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -4370,31 +4370,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006835618638433516</v>
+        <v>0.006830509868450463</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2207568300655112</v>
+        <v>0.2041441210312769</v>
       </c>
       <c r="F74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07025393727235496</v>
+        <v>0.06539637164678425</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07156484993174672</v>
+        <v>0.06714095850475132</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04028828244190663</v>
+        <v>0.03656707517802715</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02738915011286736</v>
+        <v>0.02442614501342177</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002975548151880503</v>
+        <v>0.002758755348622799</v>
       </c>
     </row>
     <row r="75">
@@ -4405,31 +4405,31 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2288</v>
+        <v>2061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8484090572455898</v>
+        <v>0.7716355691663921</v>
       </c>
       <c r="E75" t="n">
-        <v>1.422237902064808</v>
+        <v>1.167865489958785</v>
       </c>
       <c r="F75" t="n">
-        <v>2288</v>
+        <v>2061</v>
       </c>
       <c r="G75" t="n">
-        <v>0.220743750105612</v>
+        <v>0.09217775729484856</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9709511973196641</v>
+        <v>0.8804454132914543</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09150467207655311</v>
+        <v>0.0826074390206486</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1222881759749725</v>
+        <v>0.09720511175692081</v>
       </c>
       <c r="K75" t="n">
-        <v>0.004338554572314024</v>
+        <v>0.003904666868038476</v>
       </c>
     </row>
     <row r="76">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4088052005972713</v>
+        <v>0.5043899852316827</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7168417070060968</v>
+        <v>0.776484884088859</v>
       </c>
       <c r="F76" t="n">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06495986960362643</v>
+        <v>0.06339206185657531</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4729050421155989</v>
+        <v>0.5649024036247283</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03869459638372064</v>
+        <v>0.03726987028494477</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1314176901942119</v>
+        <v>0.1022889411542565</v>
       </c>
       <c r="K76" t="n">
-        <v>0.002313110511749983</v>
+        <v>0.002158569288440049</v>
       </c>
     </row>
     <row r="77">
@@ -4475,31 +4475,31 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01262072997633368</v>
+        <v>0.0131399966776371</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6742151799844578</v>
+        <v>0.6510787029983476</v>
       </c>
       <c r="F77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2163502060575411</v>
+        <v>0.2090280334232375</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1344268573448062</v>
+        <v>0.1323050785576925</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2633622462162748</v>
+        <v>0.2498831764096394</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03951391123700887</v>
+        <v>0.03997818299103528</v>
       </c>
       <c r="K77" t="n">
-        <v>0.005763305467553437</v>
+        <v>0.005378348636440933</v>
       </c>
     </row>
     <row r="78">
@@ -4510,31 +4510,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2393</v>
+        <v>2359</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9756387708475813</v>
+        <v>0.8368637671228498</v>
       </c>
       <c r="E78" t="n">
-        <v>1.793759054969996</v>
+        <v>1.674124547047541</v>
       </c>
       <c r="F78" t="n">
-        <v>2393</v>
+        <v>2359</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2271090716822073</v>
+        <v>0.2189155112719163</v>
       </c>
       <c r="H78" t="n">
-        <v>1.13035172666423</v>
+        <v>0.9853216863702983</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2158721184823662</v>
+        <v>0.2544197479728609</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2011853255098686</v>
+        <v>0.1963411536999047</v>
       </c>
       <c r="K78" t="n">
-        <v>0.005481806234456599</v>
+        <v>0.005171083263121545</v>
       </c>
     </row>
     <row r="79">
@@ -4545,31 +4545,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1366</v>
+        <v>1417</v>
       </c>
       <c r="D79" t="n">
-        <v>0.432013014680706</v>
+        <v>0.4611469798255712</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9387922199675813</v>
+        <v>0.9997265019919723</v>
       </c>
       <c r="F79" t="n">
-        <v>1366</v>
+        <v>1417</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1546141454018652</v>
+        <v>0.1584157823817804</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5165993290720508</v>
+        <v>0.5487719860393554</v>
       </c>
       <c r="I79" t="n">
-        <v>0.09205465239938349</v>
+        <v>0.1267120910342783</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1647520306287333</v>
+        <v>0.1544270179001614</v>
       </c>
       <c r="K79" t="n">
-        <v>0.003101741313003004</v>
+        <v>0.00315102853346616</v>
       </c>
     </row>
     <row r="80">
@@ -4580,31 +4580,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="D80" t="n">
-        <v>1.113997534965165</v>
+        <v>1.020491474773735</v>
       </c>
       <c r="E80" t="n">
-        <v>1.635623633977957</v>
+        <v>1.448877708986402</v>
       </c>
       <c r="F80" t="n">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06905112112872303</v>
+        <v>0.06717105908319354</v>
       </c>
       <c r="H80" t="n">
-        <v>1.181866735569201</v>
+        <v>1.084486665553413</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03926522424444556</v>
+        <v>0.03896535176318139</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3353566045407206</v>
+        <v>0.2490395278437063</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003103011287748814</v>
+        <v>0.002349720103666186</v>
       </c>
     </row>
     <row r="81">
@@ -4615,11 +4615,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20965</v>
+        <v>21069</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>25.2095581399044</v>
+        <v>25.44877722207457</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4640,31 +4640,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007940420182421803</v>
+        <v>0.006380214123055339</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2295485369395465</v>
+        <v>0.2051231070654467</v>
       </c>
       <c r="F82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07456461549736559</v>
+        <v>0.06854459305759519</v>
       </c>
       <c r="H82" t="n">
-        <v>0.08049123140517622</v>
+        <v>0.06453185132704675</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03751357330475003</v>
+        <v>0.0377295397920534</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02386333665344864</v>
+        <v>0.0242006714688614</v>
       </c>
       <c r="K82" t="n">
-        <v>0.003371904138475657</v>
+        <v>0.002613298944197595</v>
       </c>
     </row>
     <row r="83">
@@ -4675,31 +4675,31 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3599</v>
+        <v>2237</v>
       </c>
       <c r="D83" t="n">
-        <v>1.289933191961609</v>
+        <v>0.8593534028623253</v>
       </c>
       <c r="E83" t="n">
-        <v>1.905352800036781</v>
+        <v>1.322707304032519</v>
       </c>
       <c r="F83" t="n">
-        <v>3599</v>
+        <v>2237</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1413266428280622</v>
+        <v>0.1062498226528987</v>
       </c>
       <c r="H83" t="n">
-        <v>1.47303238522727</v>
+        <v>0.975883531733416</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1480050691170618</v>
+        <v>0.0963616770459339</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1164809477049857</v>
+        <v>0.126845559803769</v>
       </c>
       <c r="K83" t="n">
-        <v>0.006865448667667806</v>
+        <v>0.004229223472066224</v>
       </c>
     </row>
     <row r="84">
@@ -4710,31 +4710,31 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1842</v>
+        <v>1177</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6000204184092581</v>
+        <v>0.4467908836668357</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9594431290170178</v>
+        <v>0.7596568900626153</v>
       </c>
       <c r="F84" t="n">
-        <v>1842</v>
+        <v>1177</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09125350543763489</v>
+        <v>0.07348447863478214</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6924081315519288</v>
+        <v>0.5100470705656335</v>
       </c>
       <c r="I84" t="n">
-        <v>0.04395037167705595</v>
+        <v>0.03893098398111761</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1180738896364346</v>
+        <v>0.1281417030841112</v>
       </c>
       <c r="K84" t="n">
-        <v>0.003520810976624489</v>
+        <v>0.002212783903814852</v>
       </c>
     </row>
     <row r="85">
@@ -4745,31 +4745,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01583270053379238</v>
+        <v>0.00993842794559896</v>
       </c>
       <c r="E85" t="n">
-        <v>0.815003524068743</v>
+        <v>0.4492791179800406</v>
       </c>
       <c r="F85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2855764769483358</v>
+        <v>0.1621778601547703</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1739544967422262</v>
+        <v>0.1000443524681032</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2920375909889117</v>
+        <v>0.1481180863920599</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03669109893962741</v>
+        <v>0.02326464548241347</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007309923763386905</v>
+        <v>0.004075085977092385</v>
       </c>
     </row>
     <row r="86">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5817</v>
+        <v>2797</v>
       </c>
       <c r="D86" t="n">
-        <v>2.143693260732107</v>
+        <v>1.001331335282885</v>
       </c>
       <c r="E86" t="n">
-        <v>4.086072025937028</v>
+        <v>2.002226013108157</v>
       </c>
       <c r="F86" t="n">
-        <v>5817</v>
+        <v>2797</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5180855157086626</v>
+        <v>0.2579447935568169</v>
       </c>
       <c r="H86" t="n">
-        <v>2.499704855377786</v>
+        <v>1.178186076809652</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7531635457416996</v>
+        <v>0.2963834750698879</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2681373136583716</v>
+        <v>0.2466268113348633</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01303100073710084</v>
+        <v>0.006286551244556904</v>
       </c>
     </row>
     <row r="87">
@@ -4815,31 +4815,31 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3332</v>
+        <v>1460</v>
       </c>
       <c r="D87" t="n">
-        <v>1.055334124015644</v>
+        <v>0.5339186054188758</v>
       </c>
       <c r="E87" t="n">
-        <v>2.170272526098415</v>
+        <v>1.095719538978301</v>
       </c>
       <c r="F87" t="n">
-        <v>3332</v>
+        <v>1460</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3619677785318345</v>
+        <v>0.1624249182641506</v>
       </c>
       <c r="H87" t="n">
-        <v>1.253696565749124</v>
+        <v>0.6236340688774362</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3307240818394348</v>
+        <v>0.1147538720397279</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1971269011264667</v>
+        <v>0.1831353406887501</v>
       </c>
       <c r="K87" t="n">
-        <v>0.007362250587902963</v>
+        <v>0.003254674607887864</v>
       </c>
     </row>
     <row r="88">
@@ -4850,31 +4850,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1842</v>
+        <v>1177</v>
       </c>
       <c r="D88" t="n">
-        <v>1.658040915732272</v>
+        <v>1.331182414665818</v>
       </c>
       <c r="E88" t="n">
-        <v>2.171215962036513</v>
+        <v>1.902260413975455</v>
       </c>
       <c r="F88" t="n">
-        <v>1842</v>
+        <v>1177</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09449114184826612</v>
+        <v>0.07629900262691081</v>
       </c>
       <c r="H88" t="n">
-        <v>1.753755629411899</v>
+        <v>1.396524603362195</v>
       </c>
       <c r="I88" t="n">
-        <v>0.04556543100625277</v>
+        <v>0.04111304471734911</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2632261582184583</v>
+        <v>0.3789965301984921</v>
       </c>
       <c r="K88" t="n">
-        <v>0.003782697254791856</v>
+        <v>0.002411816269159317</v>
       </c>
     </row>
     <row r="89">
@@ -4885,11 +4885,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21628</v>
+        <v>20123</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>25.04876994201913</v>
+        <v>25.00619462912437</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4910,31 +4910,31 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007741187582723796</v>
+        <v>0.006828292855061591</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2319624579977244</v>
+        <v>0.2111504490021616</v>
       </c>
       <c r="F90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07791665918193758</v>
+        <v>0.07048133015632629</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07907560840249062</v>
+        <v>0.06915643520187587</v>
       </c>
       <c r="I90" t="n">
-        <v>0.03747041907627136</v>
+        <v>0.0365578995551914</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0245595813030377</v>
+        <v>0.02387216244824231</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003321443451568484</v>
+        <v>0.002860494423657656</v>
       </c>
     </row>
     <row r="91">
@@ -4945,31 +4945,31 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3023</v>
+        <v>2261</v>
       </c>
       <c r="D91" t="n">
-        <v>1.253182846005075</v>
+        <v>0.8200237868586555</v>
       </c>
       <c r="E91" t="n">
-        <v>1.807177665061317</v>
+        <v>1.279897826025262</v>
       </c>
       <c r="F91" t="n">
-        <v>3023</v>
+        <v>2261</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1313194405520335</v>
+        <v>0.1050261784112081</v>
       </c>
       <c r="H91" t="n">
-        <v>1.409256522194482</v>
+        <v>0.9357466923538595</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1227927654981613</v>
+        <v>0.09565841453149915</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1215215479023755</v>
+        <v>0.1258819210343063</v>
       </c>
       <c r="K91" t="n">
-        <v>0.005765983485616744</v>
+        <v>0.004280337947420776</v>
       </c>
     </row>
     <row r="92">
@@ -4980,31 +4980,31 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1576</v>
+        <v>1257</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5531185125000775</v>
+        <v>0.5602214466780424</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9010479410644621</v>
+        <v>0.8765474810497835</v>
       </c>
       <c r="F92" t="n">
-        <v>1576</v>
+        <v>1257</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08627318940125406</v>
+        <v>0.07234969246201217</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6343324478948489</v>
+        <v>0.6266010556137189</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04042124189436436</v>
+        <v>0.03864961874205619</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1285489274887368</v>
+        <v>0.1291936779161915</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00301572005264461</v>
+        <v>0.002380459103733301</v>
       </c>
     </row>
     <row r="93">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="D93" t="n">
-        <v>0.125451385974884</v>
+        <v>0.01419495465233922</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8314310499699786</v>
+        <v>0.6730296289315447</v>
       </c>
       <c r="F93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="G93" t="n">
-        <v>0.254799812217243</v>
+        <v>0.2257290551206097</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2676075854105875</v>
+        <v>0.1442285792436451</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2504302654415369</v>
+        <v>0.24588321975898</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03451239806599915</v>
+        <v>0.03546725364867598</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006644860142841935</v>
+        <v>0.005857647163793445</v>
       </c>
     </row>
     <row r="94">
@@ -5050,31 +5050,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4925</v>
+        <v>2984</v>
       </c>
       <c r="D94" t="n">
-        <v>1.765280791209079</v>
+        <v>0.9675058288266882</v>
       </c>
       <c r="E94" t="n">
-        <v>3.590546613093466</v>
+        <v>1.990188971045427</v>
       </c>
       <c r="F94" t="n">
-        <v>4925</v>
+        <v>2984</v>
       </c>
       <c r="G94" t="n">
-        <v>0.562465139082633</v>
+        <v>0.2676226973999292</v>
       </c>
       <c r="H94" t="n">
-        <v>2.082180486409925</v>
+        <v>1.144922576844692</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6278775918763131</v>
+        <v>0.3105898131616414</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2784697813913226</v>
+        <v>0.2425039506051689</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01097861106973141</v>
+        <v>0.006450678571127355</v>
       </c>
     </row>
     <row r="95">
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2664</v>
+        <v>1737</v>
       </c>
       <c r="D95" t="n">
-        <v>0.885833531501703</v>
+        <v>0.5652778198709711</v>
       </c>
       <c r="E95" t="n">
-        <v>1.827598497038707</v>
+        <v>1.200641467003152</v>
       </c>
       <c r="F95" t="n">
-        <v>2664</v>
+        <v>1737</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2948166753631085</v>
+        <v>0.1905005959561095</v>
       </c>
       <c r="H95" t="n">
-        <v>1.050971082993783</v>
+        <v>0.6692540771327913</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2576927533373237</v>
+        <v>0.1430689733242616</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2028666537953541</v>
+        <v>0.1839120839722455</v>
       </c>
       <c r="K95" t="n">
-        <v>0.005896735703572631</v>
+        <v>0.003794272197410464</v>
       </c>
     </row>
     <row r="96">
@@ -5120,31 +5120,31 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1576</v>
+        <v>1257</v>
       </c>
       <c r="D96" t="n">
-        <v>1.463408549432643</v>
+        <v>1.273221354116686</v>
       </c>
       <c r="E96" t="n">
-        <v>1.961094725062139</v>
+        <v>1.960661325021647</v>
       </c>
       <c r="F96" t="n">
-        <v>1576</v>
+        <v>1257</v>
       </c>
       <c r="G96" t="n">
-        <v>0.08897202147636563</v>
+        <v>0.07598437834531069</v>
       </c>
       <c r="H96" t="n">
-        <v>1.54625506803859</v>
+        <v>1.344684431096539</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0416949576465413</v>
+        <v>0.04103110858704895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2720971319358796</v>
+        <v>0.4888075941707939</v>
       </c>
       <c r="K96" t="n">
-        <v>0.003230129252187908</v>
+        <v>0.002635473385453224</v>
       </c>
     </row>
     <row r="97">
@@ -5155,11 +5155,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21342</v>
+        <v>21575</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>25.22842748998664</v>
+        <v>25.1534202148905</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -5180,31 +5180,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005125896073877811</v>
+        <v>0.005576739786192775</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1572922710329294</v>
+        <v>0.1816982920281589</v>
       </c>
       <c r="F98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0502770320745185</v>
+        <v>0.05983976239804178</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04863587615545839</v>
+        <v>0.05448014696594328</v>
       </c>
       <c r="I98" t="n">
-        <v>0.02914228336885571</v>
+        <v>0.03467491455376148</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02181531651876867</v>
+        <v>0.02427937008906156</v>
       </c>
       <c r="K98" t="n">
-        <v>0.001952104386873543</v>
+        <v>0.00218183861579746</v>
       </c>
     </row>
     <row r="99">
@@ -5215,31 +5215,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1306</v>
+        <v>1629</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553515353705734</v>
+        <v>0.6345187238184735</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8664187510730699</v>
+        <v>1.011702712043189</v>
       </c>
       <c r="F99" t="n">
-        <v>1306</v>
+        <v>1629</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06388362846337259</v>
+        <v>0.08527313824743032</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6234451466007158</v>
+        <v>0.7207838271278888</v>
       </c>
       <c r="I99" t="n">
-        <v>0.05528358544688672</v>
+        <v>0.07510699261911213</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1140960339689627</v>
+        <v>0.1176900183781981</v>
       </c>
       <c r="K99" t="n">
-        <v>0.002499683061614633</v>
+        <v>0.003148079034872353</v>
       </c>
     </row>
     <row r="100">
@@ -5250,31 +5250,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314060976030305</v>
+        <v>0.3597779454430565</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5529787070117891</v>
+        <v>0.6409630759153515</v>
       </c>
       <c r="F100" t="n">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04655849118717015</v>
+        <v>0.06150511256419122</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3550835214555264</v>
+        <v>0.4102629442932084</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02897217741701752</v>
+        <v>0.03502634132746607</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1167146863881499</v>
+        <v>0.1271821407135576</v>
       </c>
       <c r="K100" t="n">
-        <v>0.001465728040784597</v>
+        <v>0.001750168274156749</v>
       </c>
     </row>
     <row r="101">
@@ -5285,31 +5285,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007464117603376508</v>
+        <v>0.008426346816122532</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4340973580256104</v>
+        <v>0.3802091958932579</v>
       </c>
       <c r="F101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1199230791535228</v>
+        <v>0.1331066070124507</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1822166407946497</v>
+        <v>0.08295305038336664</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1016313720028847</v>
+        <v>0.1247522446792573</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0189740767236799</v>
+        <v>0.02644838765263557</v>
       </c>
       <c r="K101" t="n">
-        <v>0.00315562472678721</v>
+        <v>0.003548341919668019</v>
       </c>
     </row>
     <row r="102">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1571</v>
+        <v>1817</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6340265256585553</v>
+        <v>0.6860066375229508</v>
       </c>
       <c r="E102" t="n">
-        <v>1.233467823942192</v>
+        <v>1.398324520909227</v>
       </c>
       <c r="F102" t="n">
-        <v>1571</v>
+        <v>1817</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1444178856909275</v>
+        <v>0.1682600625790656</v>
       </c>
       <c r="H102" t="n">
-        <v>0.73212222289294</v>
+        <v>0.7994960003998131</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1506568503100425</v>
+        <v>0.1772974345367402</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1936332364566624</v>
+        <v>0.2381682113045827</v>
       </c>
       <c r="K102" t="n">
-        <v>0.003568528220057487</v>
+        <v>0.00417271489277482</v>
       </c>
     </row>
     <row r="103">
@@ -5355,31 +5355,31 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>967</v>
+        <v>1097</v>
       </c>
       <c r="D103" t="n">
-        <v>0.389234866714105</v>
+        <v>0.3983382181031629</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8017044239677489</v>
+        <v>0.8684933669865131</v>
       </c>
       <c r="F103" t="n">
-        <v>967</v>
+        <v>1097</v>
       </c>
       <c r="G103" t="n">
-        <v>0.108529273304157</v>
+        <v>0.1235386345069855</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4491464153397828</v>
+        <v>0.4664387691300362</v>
       </c>
       <c r="I103" t="n">
-        <v>0.07695282343775034</v>
+        <v>0.09046374866738915</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1592846604762599</v>
+        <v>0.1792439986020327</v>
       </c>
       <c r="K103" t="n">
-        <v>0.002223177114501595</v>
+        <v>0.002457180176861584</v>
       </c>
     </row>
     <row r="104">
@@ -5390,31 +5390,31 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7929950390243903</v>
+        <v>0.9909121695673093</v>
       </c>
       <c r="E104" t="n">
-        <v>1.21473382296972</v>
+        <v>1.524628735031001</v>
       </c>
       <c r="F104" t="n">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="G104" t="n">
-        <v>0.04813186742831022</v>
+        <v>0.06291182374116033</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8351348721189424</v>
+        <v>1.043176541104913</v>
       </c>
       <c r="I104" t="n">
-        <v>0.02997522207442671</v>
+        <v>0.03700693661812693</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2954707685858011</v>
+        <v>0.3741030168021098</v>
       </c>
       <c r="K104" t="n">
-        <v>0.001591269858181477</v>
+        <v>0.001917083631269634</v>
       </c>
     </row>
     <row r="105">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19868</v>
+        <v>18278</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>25.65396355499979</v>
+        <v>25.68544725596439</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5450,31 +5450,31 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007461747154593468</v>
+        <v>0.007694846019148827</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2313893409445882</v>
+        <v>0.2265711239306256</v>
       </c>
       <c r="F106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G106" t="n">
-        <v>0.07659591804258525</v>
+        <v>0.07128439610823989</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07866604160517454</v>
+        <v>0.07904562074691057</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03869867708999664</v>
+        <v>0.03843722655437887</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02464114420581609</v>
+        <v>0.02511496865190566</v>
       </c>
       <c r="K106" t="n">
-        <v>0.003262078855186701</v>
+        <v>0.003299862728454173</v>
       </c>
     </row>
     <row r="107">
@@ -5485,31 +5485,31 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2652</v>
+        <v>2513</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9256681361002848</v>
+        <v>0.9362688141409308</v>
       </c>
       <c r="E107" t="n">
-        <v>1.421046111965552</v>
+        <v>1.390843617962673</v>
       </c>
       <c r="F107" t="n">
-        <v>2652</v>
+        <v>2513</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1109287273138762</v>
+        <v>0.09933282865677029</v>
       </c>
       <c r="H107" t="n">
-        <v>1.06045199977234</v>
+        <v>1.064474066952243</v>
       </c>
       <c r="I107" t="n">
-        <v>0.09628808544948697</v>
+        <v>0.08815344865433872</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1338855313370004</v>
+        <v>0.1201550790574402</v>
       </c>
       <c r="K107" t="n">
-        <v>0.005082936491817236</v>
+        <v>0.004687439650297165</v>
       </c>
     </row>
     <row r="108">
@@ -5520,31 +5520,31 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5011171222431585</v>
+        <v>0.4569792565889657</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9676731351064518</v>
+        <v>0.7877266299910843</v>
       </c>
       <c r="F108" t="n">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07888627995271236</v>
+        <v>0.07171585084870458</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5776639470132068</v>
+        <v>0.5356397326104343</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04402623686473817</v>
+        <v>0.04230172443203628</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2563092370983213</v>
+        <v>0.1266965304967016</v>
       </c>
       <c r="K108" t="n">
-        <v>0.002844148548319936</v>
+        <v>0.003078545676544309</v>
       </c>
     </row>
     <row r="109">
@@ -5555,31 +5555,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01550852484069765</v>
+        <v>0.01672120788134634</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8663507991004735</v>
+        <v>0.9103308080229908</v>
       </c>
       <c r="F109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2649419329827651</v>
+        <v>0.2914857498835772</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1658312253421172</v>
+        <v>0.1779393797041848</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3644304557237774</v>
+        <v>0.3670770416501909</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0456829167669639</v>
+        <v>0.04682769312057644</v>
       </c>
       <c r="K109" t="n">
-        <v>0.007119713467545807</v>
+        <v>0.007092600339092314</v>
       </c>
     </row>
     <row r="110">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3588</v>
+        <v>3283</v>
       </c>
       <c r="D110" t="n">
-        <v>1.232345119235106</v>
+        <v>1.062554239644669</v>
       </c>
       <c r="E110" t="n">
-        <v>2.55402590893209</v>
+        <v>2.219861895078793</v>
       </c>
       <c r="F110" t="n">
-        <v>3588</v>
+        <v>3283</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3264772653346881</v>
+        <v>0.3024019420845434</v>
       </c>
       <c r="H110" t="n">
-        <v>1.453884935006499</v>
+        <v>1.272989073419012</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4752396680414677</v>
+        <v>0.3903071200475097</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2694223263533786</v>
+        <v>0.227664299425669</v>
       </c>
       <c r="K110" t="n">
-        <v>0.008118889294564724</v>
+        <v>0.007063173921778798</v>
       </c>
     </row>
     <row r="111">
@@ -5625,31 +5625,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2225</v>
+        <v>2163</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6530462731607258</v>
+        <v>0.567648715339601</v>
       </c>
       <c r="E111" t="n">
-        <v>1.513985343044624</v>
+        <v>1.382275079959072</v>
       </c>
       <c r="F111" t="n">
-        <v>2225</v>
+        <v>2163</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2435793984914199</v>
+        <v>0.2446629757760093</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7877354503143579</v>
+        <v>0.7096412319224328</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2581943551776931</v>
+        <v>0.2200505265500396</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2068040649173781</v>
+        <v>0.1895306719234213</v>
       </c>
       <c r="K111" t="n">
-        <v>0.004933279938995838</v>
+        <v>0.004882688750512898</v>
       </c>
     </row>
     <row r="112">
@@ -5660,31 +5660,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="D112" t="n">
-        <v>1.416205650893971</v>
+        <v>1.207354964222759</v>
       </c>
       <c r="E112" t="n">
-        <v>2.003513965057209</v>
+        <v>1.710301498067565</v>
       </c>
       <c r="F112" t="n">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0809561163187027</v>
+        <v>0.07255316141527146</v>
       </c>
       <c r="H112" t="n">
-        <v>1.494904785766266</v>
+        <v>1.285783232538961</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04500641010235995</v>
+        <v>0.04346399416681379</v>
       </c>
       <c r="J112" t="n">
-        <v>0.3711870732950047</v>
+        <v>0.2969210841692984</v>
       </c>
       <c r="K112" t="n">
-        <v>0.003063178388401866</v>
+        <v>0.003037472604773939</v>
       </c>
     </row>
     <row r="113">
@@ -5695,11 +5695,11 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20830</v>
+        <v>21071</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>25.43919122894295</v>
+        <v>25.63816184096504</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5720,31 +5720,31 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006739174132235348</v>
+        <v>0.008251299732364714</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1865328189451247</v>
+        <v>0.2482137379702181</v>
       </c>
       <c r="F114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05466285615693778</v>
+        <v>0.08006144117098302</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06926932057831436</v>
+        <v>0.08347147132735699</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0303805727744475</v>
+        <v>0.04199328972026706</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02094845578540117</v>
+        <v>0.02952265250496566</v>
       </c>
       <c r="K114" t="n">
-        <v>0.002914790296927094</v>
+        <v>0.003416746621951461</v>
       </c>
     </row>
     <row r="115">
@@ -5755,31 +5755,31 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2065</v>
+        <v>3072</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6691549374954775</v>
+        <v>1.042880626628175</v>
       </c>
       <c r="E115" t="n">
-        <v>1.014760265010409</v>
+        <v>1.603280878975056</v>
       </c>
       <c r="F115" t="n">
-        <v>2065</v>
+        <v>3072</v>
       </c>
       <c r="G115" t="n">
-        <v>0.06738274253439158</v>
+        <v>0.1268086598720402</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7722450461005792</v>
+        <v>1.199788098572753</v>
       </c>
       <c r="I115" t="n">
-        <v>0.06385854154359549</v>
+        <v>0.1250467227073386</v>
       </c>
       <c r="J115" t="n">
-        <v>0.09633619408123195</v>
+        <v>0.1279875347390771</v>
       </c>
       <c r="K115" t="n">
-        <v>0.003906913916580379</v>
+        <v>0.005733283818699419</v>
       </c>
     </row>
     <row r="116">
@@ -5790,31 +5790,31 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1264</v>
+        <v>1659</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3920418560737744</v>
+        <v>0.5173717231955379</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6487729590153322</v>
+        <v>0.878892526961863</v>
       </c>
       <c r="F116" t="n">
-        <v>1264</v>
+        <v>1659</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04964997747447342</v>
+        <v>0.08716402132995427</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4563122537219897</v>
+        <v>0.6035705615067855</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03187018178869039</v>
+        <v>0.04638525820337236</v>
       </c>
       <c r="J116" t="n">
-        <v>0.101769958040677</v>
+        <v>0.1295745279639959</v>
       </c>
       <c r="K116" t="n">
-        <v>0.00241035083308816</v>
+        <v>0.00308618729468435</v>
       </c>
     </row>
     <row r="117">
@@ -5825,31 +5825,31 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01789809879846871</v>
+        <v>0.016842425102368</v>
       </c>
       <c r="E117" t="n">
-        <v>1.079371831030585</v>
+        <v>0.8271758259506896</v>
       </c>
       <c r="F117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3163655602838844</v>
+        <v>0.2740779095329344</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1985424506710842</v>
+        <v>0.1757112983614206</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4757332177832723</v>
+        <v>0.3057640608167276</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05830028862692416</v>
+        <v>0.04542239534202963</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008446613326668739</v>
+        <v>0.007065776735544205</v>
       </c>
     </row>
     <row r="118">
@@ -5860,31 +5860,31 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3443</v>
+        <v>4048</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04252807458397</v>
+        <v>1.188818934373558</v>
       </c>
       <c r="E118" t="n">
-        <v>2.247941739973612</v>
+        <v>2.6626267649699</v>
       </c>
       <c r="F118" t="n">
-        <v>3443</v>
+        <v>4048</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3113123378716409</v>
+        <v>0.4885931371245533</v>
       </c>
       <c r="H118" t="n">
-        <v>1.260759661323391</v>
+        <v>1.442117166123353</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4477164361160249</v>
+        <v>0.4423461909173056</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2005266584455967</v>
+        <v>0.2568788977805525</v>
       </c>
       <c r="K118" t="n">
-        <v>0.007621347554959357</v>
+        <v>0.008847085759043694</v>
       </c>
     </row>
     <row r="119">
@@ -5895,31 +5895,31 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2302</v>
+        <v>2416</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6531391543103382</v>
+        <v>0.6253652219893411</v>
       </c>
       <c r="E119" t="n">
-        <v>1.511910752975382</v>
+        <v>1.479141947929747</v>
       </c>
       <c r="F119" t="n">
-        <v>2302</v>
+        <v>2416</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2567105840425938</v>
+        <v>0.2654675998492166</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7997683526482433</v>
+        <v>0.7720980651210994</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2701185725163668</v>
+        <v>0.2258338382234797</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1668311998946592</v>
+        <v>0.1964097642339766</v>
       </c>
       <c r="K119" t="n">
-        <v>0.00502271403092891</v>
+        <v>0.005257676471956074</v>
       </c>
     </row>
     <row r="120">
@@ -5930,31 +5930,31 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1264</v>
+        <v>1659</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9138883663108572</v>
+        <v>1.540969720692374</v>
       </c>
       <c r="E120" t="n">
-        <v>1.241100332932547</v>
+        <v>2.099188723019324</v>
       </c>
       <c r="F120" t="n">
-        <v>1264</v>
+        <v>1659</v>
       </c>
       <c r="G120" t="n">
-        <v>0.05140375159680843</v>
+        <v>0.08929942478425801</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9792585099348798</v>
+        <v>1.629357472062111</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03251042671035975</v>
+        <v>0.04839065123815089</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1676647743443027</v>
+        <v>0.31869347312022</v>
       </c>
       <c r="K120" t="n">
-        <v>0.003134381608106196</v>
+        <v>0.003405119176022708</v>
       </c>
     </row>
     <row r="121">
@@ -5965,11 +5965,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19705</v>
+        <v>20797</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>26.93094624683727</v>
+        <v>25.18640626978595</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -5990,31 +5990,31 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006442144047468901</v>
+        <v>0.008540123351849616</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2144580580061302</v>
+        <v>0.2598943390185013</v>
       </c>
       <c r="F122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G122" t="n">
-        <v>0.07481738494243473</v>
+        <v>0.09020290232729167</v>
       </c>
       <c r="H122" t="n">
-        <v>0.06607388169504702</v>
+        <v>0.07805688981898129</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03967388439923525</v>
+        <v>0.0482953351456672</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02358905400615185</v>
+        <v>0.03114707686472684</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002758323098532856</v>
+        <v>0.003096078056842089</v>
       </c>
     </row>
     <row r="123">
@@ -6025,31 +6025,31 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2325</v>
+        <v>2559</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9264933888334781</v>
+        <v>1.035796264070086</v>
       </c>
       <c r="E123" t="n">
-        <v>1.424707552068867</v>
+        <v>1.646225742064416</v>
       </c>
       <c r="F123" t="n">
-        <v>2325</v>
+        <v>2559</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1235740326810628</v>
+        <v>0.1501690640579909</v>
       </c>
       <c r="H123" t="n">
-        <v>1.049858622369356</v>
+        <v>1.179030876373872</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1043277281569317</v>
+        <v>0.1258166724583134</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1296816375106573</v>
+        <v>0.1715519931167364</v>
       </c>
       <c r="K123" t="n">
-        <v>0.004523697542026639</v>
+        <v>0.004867925075814128</v>
       </c>
     </row>
     <row r="124">
@@ -6060,31 +6060,31 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1230</v>
+        <v>1358</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4687964239856228</v>
+        <v>0.5257570614339784</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8125571369891986</v>
+        <v>1.034077764023095</v>
       </c>
       <c r="F124" t="n">
-        <v>1230</v>
+        <v>1358</v>
       </c>
       <c r="G124" t="n">
-        <v>0.08412315254099667</v>
+        <v>0.09707262483425438</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5344024243531749</v>
+        <v>0.600119928480126</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04244351224042475</v>
+        <v>0.04792615701444447</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1425142276566476</v>
+        <v>0.278259904589504</v>
       </c>
       <c r="K124" t="n">
-        <v>0.002361539634875953</v>
+        <v>0.002598078339360654</v>
       </c>
     </row>
     <row r="125">
@@ -6095,31 +6095,31 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01014755456708372</v>
+        <v>0.01015006762463599</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6047134869731963</v>
+        <v>0.4524465869180858</v>
       </c>
       <c r="F125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="G125" t="n">
-        <v>0.2922753493767232</v>
+        <v>0.17205055069644</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1081899993587285</v>
+        <v>0.1057843863964081</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1623549835057929</v>
+        <v>0.1323485162574798</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02532859647180885</v>
+        <v>0.02538249327335507</v>
       </c>
       <c r="K125" t="n">
-        <v>0.00465353624895215</v>
+        <v>0.004382450482808053</v>
       </c>
     </row>
     <row r="126">
@@ -6130,31 +6130,31 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2720</v>
+        <v>2704</v>
       </c>
       <c r="D126" t="n">
-        <v>1.18725997779984</v>
+        <v>1.054876290261745</v>
       </c>
       <c r="E126" t="n">
-        <v>2.160874794004485</v>
+        <v>2.001884458004497</v>
       </c>
       <c r="F126" t="n">
-        <v>2720</v>
+        <v>2704</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2495285094482824</v>
+        <v>0.2464320679428056</v>
       </c>
       <c r="H126" t="n">
-        <v>1.357684908667579</v>
+        <v>1.222842618008144</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2563910371391103</v>
+        <v>0.2320884864311665</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2755471123382449</v>
+        <v>0.2787228024099022</v>
       </c>
       <c r="K126" t="n">
-        <v>0.006144943879917264</v>
+        <v>0.005986797623336315</v>
       </c>
     </row>
     <row r="127">
@@ -6165,31 +6165,31 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5620684380410239</v>
+        <v>0.560379279544577</v>
       </c>
       <c r="E127" t="n">
-        <v>1.162669621990062</v>
+        <v>1.139399191946723</v>
       </c>
       <c r="F127" t="n">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="G127" t="n">
-        <v>0.168116670451127</v>
+        <v>0.165896495920606</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6566068909596652</v>
+        <v>0.6518760139588267</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1183824390172958</v>
+        <v>0.09792047715745866</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2072025098605081</v>
+        <v>0.2116925065638497</v>
       </c>
       <c r="K127" t="n">
-        <v>0.00347821123432368</v>
+        <v>0.003400981775484979</v>
       </c>
     </row>
     <row r="128">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1230</v>
+        <v>1358</v>
       </c>
       <c r="D128" t="n">
-        <v>1.303434968111105</v>
+        <v>1.656559477560222</v>
       </c>
       <c r="E128" t="n">
-        <v>1.915500895003788</v>
+        <v>2.416775173973292</v>
       </c>
       <c r="F128" t="n">
-        <v>1230</v>
+        <v>1358</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0848490814678371</v>
+        <v>0.09988910669926554</v>
       </c>
       <c r="H128" t="n">
-        <v>1.370860195485875</v>
+        <v>1.732961870729923</v>
       </c>
       <c r="I128" t="n">
-        <v>0.04366480349563062</v>
+        <v>0.04989250004291534</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4065331653691828</v>
+        <v>0.5230819394346327</v>
       </c>
       <c r="K128" t="n">
-        <v>0.002529108198359609</v>
+        <v>0.00287459057290107</v>
       </c>
     </row>
     <row r="129">
@@ -6235,11 +6235,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21410</v>
+        <v>21727</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>25.7087056459859</v>
+        <v>25.21973198675551</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -6260,31 +6260,31 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00702245905995369</v>
+        <v>0.005534624215215445</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2363647879101336</v>
+        <v>0.1743362609995529</v>
       </c>
       <c r="F130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G130" t="n">
-        <v>0.07786364911589772</v>
+        <v>0.05789225804619491</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07340192270930856</v>
+        <v>0.0536420262651518</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0452747973613441</v>
+        <v>0.03224281629081815</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02847385313361883</v>
+        <v>0.02225048094987869</v>
       </c>
       <c r="K130" t="n">
-        <v>0.003008960979059339</v>
+        <v>0.002071127411909401</v>
       </c>
     </row>
     <row r="131">
@@ -6295,31 +6295,31 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2524</v>
+        <v>1662</v>
       </c>
       <c r="D131" t="n">
-        <v>0.93769673013594</v>
+        <v>0.667374555952847</v>
       </c>
       <c r="E131" t="n">
-        <v>1.456233420060016</v>
+        <v>1.079273706069216</v>
       </c>
       <c r="F131" t="n">
-        <v>2524</v>
+        <v>1662</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1153998511144891</v>
+        <v>0.08849795896094292</v>
       </c>
       <c r="H131" t="n">
-        <v>1.071866303333081</v>
+        <v>0.7604320101672783</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1098615493392572</v>
+        <v>0.08300224191043526</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1403881380101666</v>
+        <v>0.1345656712073833</v>
       </c>
       <c r="K131" t="n">
-        <v>0.004846259718760848</v>
+        <v>0.003168865223415196</v>
       </c>
     </row>
     <row r="132">
@@ -6330,31 +6330,31 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1386</v>
+        <v>932</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4734976129839197</v>
+        <v>0.3536486229859293</v>
       </c>
       <c r="E132" t="n">
-        <v>0.832922411034815</v>
+        <v>0.6416516220197082</v>
       </c>
       <c r="F132" t="n">
-        <v>1386</v>
+        <v>932</v>
       </c>
       <c r="G132" t="n">
-        <v>0.08050134847871959</v>
+        <v>0.05883019149769098</v>
       </c>
       <c r="H132" t="n">
-        <v>0.547114999149926</v>
+        <v>0.4035913299303502</v>
       </c>
       <c r="I132" t="n">
-        <v>0.04881140089128166</v>
+        <v>0.03640394622925669</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1458324448904023</v>
+        <v>0.1358534378232434</v>
       </c>
       <c r="K132" t="n">
-        <v>0.002716686110943556</v>
+        <v>0.001758706988766789</v>
       </c>
     </row>
     <row r="133">
@@ -6365,31 +6365,31 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01125920261256397</v>
+        <v>0.008110552560538054</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5312380510149524</v>
+        <v>0.3545733239734545</v>
       </c>
       <c r="F133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1887855173554271</v>
+        <v>0.1282624718733132</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1173917880514637</v>
+        <v>0.07979483215603977</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1772638495313004</v>
+        <v>0.1129358814796433</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03002910711802542</v>
+        <v>0.02109920617658645</v>
       </c>
       <c r="K133" t="n">
-        <v>0.004957358120009303</v>
+        <v>0.003252707072533667</v>
       </c>
     </row>
     <row r="134">
@@ -6400,31 +6400,31 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3025</v>
+        <v>1929</v>
       </c>
       <c r="D134" t="n">
-        <v>1.056263515842147</v>
+        <v>0.8653368770610541</v>
       </c>
       <c r="E134" t="n">
-        <v>2.127919732942246</v>
+        <v>1.623091610032134</v>
       </c>
       <c r="F134" t="n">
-        <v>3025</v>
+        <v>1929</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2782747554592788</v>
+        <v>0.1760500179370865</v>
       </c>
       <c r="H134" t="n">
-        <v>1.249664193484932</v>
+        <v>0.9855198455043137</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3218598208623007</v>
+        <v>0.2016290466999635</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2539187411312014</v>
+        <v>0.2442780770361423</v>
       </c>
       <c r="K134" t="n">
-        <v>0.006778345676138997</v>
+        <v>0.004206656129099429</v>
       </c>
     </row>
     <row r="135">
@@ -6435,31 +6435,31 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1762</v>
+        <v>1157</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5617848066613078</v>
+        <v>0.4391918429173529</v>
       </c>
       <c r="E135" t="n">
-        <v>1.218737793969922</v>
+        <v>0.9368960959836841</v>
       </c>
       <c r="F135" t="n">
-        <v>1762</v>
+        <v>1157</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1958321104757488</v>
+        <v>0.1277359650703147</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6705066618742421</v>
+        <v>0.510774624417536</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1453678637044504</v>
+        <v>0.09531729680020362</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1929892637999728</v>
+        <v>0.1937068131519482</v>
       </c>
       <c r="K135" t="n">
-        <v>0.003953315550461411</v>
+        <v>0.002558036707341671</v>
       </c>
     </row>
     <row r="136">
@@ -6470,31 +6470,31 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1386</v>
+        <v>932</v>
       </c>
       <c r="D136" t="n">
-        <v>1.479284159606323</v>
+        <v>0.9775911924662068</v>
       </c>
       <c r="E136" t="n">
-        <v>2.125959141994826</v>
+        <v>1.492228953982703</v>
       </c>
       <c r="F136" t="n">
-        <v>1386</v>
+        <v>932</v>
       </c>
       <c r="G136" t="n">
-        <v>0.08358961099293083</v>
+        <v>0.06196794891729951</v>
       </c>
       <c r="H136" t="n">
-        <v>1.554746629903093</v>
+        <v>1.029051329009235</v>
       </c>
       <c r="I136" t="n">
-        <v>0.05021682765800506</v>
+        <v>0.03771966649219394</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4258361337706447</v>
+        <v>0.3559003118425608</v>
       </c>
       <c r="K136" t="n">
-        <v>0.003580249729566276</v>
+        <v>0.001940230838954449</v>
       </c>
     </row>
     <row r="137">
@@ -6505,11 +6505,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20082</v>
+        <v>17130</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>25.50049919483718</v>
+        <v>25.33816217177082</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -6530,31 +6530,31 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D138" t="n">
-        <v>0.006565544870682061</v>
+        <v>0.008368468261323869</v>
       </c>
       <c r="E138" t="n">
-        <v>0.231226971023716</v>
+        <v>0.2451383910374716</v>
       </c>
       <c r="F138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08607254468370229</v>
+        <v>0.08719866862520576</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06698386603966355</v>
+        <v>0.07455956714693457</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0433064007665962</v>
+        <v>0.04362429480534047</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02476986264809966</v>
+        <v>0.02833768585696816</v>
       </c>
       <c r="K138" t="n">
-        <v>0.00266974710393697</v>
+        <v>0.002849299111403525</v>
       </c>
     </row>
     <row r="139">
@@ -6565,31 +6565,31 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2324</v>
+        <v>2419</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9301059686113149</v>
+        <v>0.9283724692650139</v>
       </c>
       <c r="E139" t="n">
-        <v>1.489458378986456</v>
+        <v>1.490420999005437</v>
       </c>
       <c r="F139" t="n">
-        <v>2324</v>
+        <v>2419</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1473174014827237</v>
+        <v>0.1508928566472605</v>
       </c>
       <c r="H139" t="n">
-        <v>1.053777623921633</v>
+        <v>1.061385465203784</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1192422122694552</v>
+        <v>0.1193028992274776</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1517834644764662</v>
+        <v>0.1402691942639649</v>
       </c>
       <c r="K139" t="n">
-        <v>0.004477198701351881</v>
+        <v>0.004619298619218171</v>
       </c>
     </row>
     <row r="140">
@@ -6600,31 +6600,31 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1223</v>
+        <v>1293</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4930892057018355</v>
+        <v>0.4937644031597301</v>
       </c>
       <c r="E140" t="n">
-        <v>1.00713414105121</v>
+        <v>0.8589451550506055</v>
       </c>
       <c r="F140" t="n">
-        <v>1223</v>
+        <v>1293</v>
       </c>
       <c r="G140" t="n">
-        <v>0.09755135606974363</v>
+        <v>0.0969235465163365</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5597773378249258</v>
+        <v>0.5630582622252405</v>
       </c>
       <c r="I140" t="n">
-        <v>0.04569851339329034</v>
+        <v>0.04475627921056002</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2950812912313268</v>
+        <v>0.1446142962668091</v>
       </c>
       <c r="K140" t="n">
-        <v>0.002372018061578274</v>
+        <v>0.0024494593963027</v>
       </c>
     </row>
     <row r="141">
@@ -6635,31 +6635,31 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008392738760448992</v>
+        <v>0.009533688775263727</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3539557099575177</v>
+        <v>0.4013829960022122</v>
       </c>
       <c r="F141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1401065458776429</v>
+        <v>0.1604130032937974</v>
       </c>
       <c r="H141" t="n">
-        <v>0.08717276831157506</v>
+        <v>0.09895214124117047</v>
       </c>
       <c r="I141" t="n">
-        <v>0.09738187317270786</v>
+        <v>0.1069473929237574</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01624312216881663</v>
+        <v>0.01979655050672591</v>
       </c>
       <c r="K141" t="n">
-        <v>0.003776143887080252</v>
+        <v>0.004139568423852324</v>
       </c>
     </row>
     <row r="142">
@@ -6670,31 +6670,31 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2491</v>
+        <v>2531</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9968151333741844</v>
+        <v>0.9561176309362054</v>
       </c>
       <c r="E142" t="n">
-        <v>1.870833320077509</v>
+        <v>1.906066926079802</v>
       </c>
       <c r="F142" t="n">
-        <v>2491</v>
+        <v>2531</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2221165205119178</v>
+        <v>0.3381695303833112</v>
       </c>
       <c r="H142" t="n">
-        <v>1.144793032901362</v>
+        <v>1.101393870078027</v>
       </c>
       <c r="I142" t="n">
-        <v>0.2029949373099953</v>
+        <v>0.1867689926875755</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2812518179416656</v>
+        <v>0.2596441281493753</v>
       </c>
       <c r="K142" t="n">
-        <v>0.005550036672502756</v>
+        <v>0.00557386374566704</v>
       </c>
     </row>
     <row r="143">
@@ -6705,31 +6705,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1363</v>
+        <v>1406</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5501022307435051</v>
+        <v>0.6520011788234115</v>
       </c>
       <c r="E143" t="n">
-        <v>1.080062029999681</v>
+        <v>1.165164445061237</v>
       </c>
       <c r="F143" t="n">
-        <v>1363</v>
+        <v>1406</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1474645753623918</v>
+        <v>0.1522559224395081</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6306943634990603</v>
+        <v>0.7332023084163666</v>
       </c>
       <c r="I143" t="n">
-        <v>0.08268532226793468</v>
+        <v>0.07169250166043639</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2084332660306245</v>
+        <v>0.1968424785882235</v>
       </c>
       <c r="K143" t="n">
-        <v>0.003123117377981544</v>
+        <v>0.003146769828163087</v>
       </c>
     </row>
     <row r="144">
@@ -6740,31 +6740,31 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1223</v>
+        <v>1293</v>
       </c>
       <c r="D144" t="n">
-        <v>1.592244507628493</v>
+        <v>1.415759036201052</v>
       </c>
       <c r="E144" t="n">
-        <v>2.40887855400797</v>
+        <v>2.065065379021689</v>
       </c>
       <c r="F144" t="n">
-        <v>1223</v>
+        <v>1293</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1003458058694378</v>
+        <v>0.09962737536989152</v>
       </c>
       <c r="H144" t="n">
-        <v>1.660785943618976</v>
+        <v>1.487375641823746</v>
       </c>
       <c r="I144" t="n">
-        <v>0.047076630522497</v>
+        <v>0.04686072724871337</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5910013804677874</v>
+        <v>0.4210269483737648</v>
       </c>
       <c r="K144" t="n">
-        <v>0.002556454623118043</v>
+        <v>0.002647773828357458</v>
       </c>
     </row>
     <row r="145">
@@ -6775,11 +6775,11 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20359</v>
+        <v>22337</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>25.52421788813081</v>
+        <v>25.43814918329008</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -6800,31 +6800,31 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004515675245784223</v>
+        <v>0.005875332746654749</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1364089660346508</v>
+        <v>0.178833671961911</v>
       </c>
       <c r="F146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0411620558006689</v>
+        <v>0.05856583337299526</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04446022503543645</v>
+        <v>0.05666179198306054</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02581836271565408</v>
+        <v>0.03269501146860421</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01785960991401225</v>
+        <v>0.02205380401574075</v>
       </c>
       <c r="K146" t="n">
-        <v>0.001841251854784787</v>
+        <v>0.002224198542535305</v>
       </c>
     </row>
     <row r="147">
@@ -6835,31 +6835,31 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1277</v>
+        <v>1592</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4589622528292239</v>
+        <v>0.6582403901265934</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7278293370036408</v>
+        <v>1.030748564982787</v>
       </c>
       <c r="F147" t="n">
-        <v>1277</v>
+        <v>1592</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05432146310340613</v>
+        <v>0.08290832454804331</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5235072309151292</v>
+        <v>0.7422934975475073</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04955873743165284</v>
+        <v>0.06830905610695481</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09110062604304403</v>
+        <v>0.1248224030714482</v>
       </c>
       <c r="K147" t="n">
-        <v>0.002442196710035205</v>
+        <v>0.003023018944077194</v>
       </c>
     </row>
     <row r="148">
@@ -6870,31 +6870,31 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>763</v>
+        <v>899</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2791302100522444</v>
+        <v>0.360022975015454</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4820607589790598</v>
+        <v>0.6499456650344655</v>
       </c>
       <c r="F148" t="n">
-        <v>763</v>
+        <v>899</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04115416458807886</v>
+        <v>0.06103464146144688</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3194024009862915</v>
+        <v>0.4102657879702747</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02421293966472149</v>
+        <v>0.0331785783637315</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0916581298224628</v>
+        <v>0.1383799953619018</v>
       </c>
       <c r="K148" t="n">
-        <v>0.001473955227993429</v>
+        <v>0.001941462280228734</v>
       </c>
     </row>
     <row r="149">
@@ -6905,31 +6905,31 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007925273268483579</v>
+        <v>0.008237097761593759</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3881454799557105</v>
+        <v>0.3526640119962394</v>
       </c>
       <c r="F149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1297168408054858</v>
+        <v>0.1290554309962317</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08113378845155239</v>
+        <v>0.08127048739697784</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1426235450198874</v>
+        <v>0.1119922385551035</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02241707127541304</v>
+        <v>0.01791648159269243</v>
       </c>
       <c r="K149" t="n">
-        <v>0.003430422046221793</v>
+        <v>0.003327595419250429</v>
       </c>
     </row>
     <row r="150">
@@ -6940,31 +6940,31 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1685</v>
+        <v>1835</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5723190954886377</v>
+        <v>0.7402060892200097</v>
       </c>
       <c r="E150" t="n">
-        <v>1.214800678892061</v>
+        <v>1.426483183982782</v>
       </c>
       <c r="F150" t="n">
-        <v>1685</v>
+        <v>1835</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1517429588129744</v>
+        <v>0.165665001841262</v>
       </c>
       <c r="H150" t="n">
-        <v>0.6744922215584666</v>
+        <v>0.8515984897967428</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1923526792088524</v>
+        <v>0.1665960093960166</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1827699816785753</v>
+        <v>0.2277791065862402</v>
       </c>
       <c r="K150" t="n">
-        <v>0.003768637892790139</v>
+        <v>0.004049012088216841</v>
       </c>
     </row>
     <row r="151">
@@ -6975,31 +6975,31 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3798140487633646</v>
+        <v>0.4309788425453007</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8370738469529897</v>
+        <v>0.9095103030558676</v>
       </c>
       <c r="F151" t="n">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1228993841214105</v>
+        <v>0.1248638761462644</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4491546298377216</v>
+        <v>0.4996809981530532</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1152537844609469</v>
+        <v>0.08604211267083883</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1408681044122204</v>
+        <v>0.1896976449061185</v>
       </c>
       <c r="K151" t="n">
-        <v>0.002477582776919007</v>
+        <v>0.002476926427334547</v>
       </c>
     </row>
     <row r="152">
@@ -7010,31 +7010,31 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>763</v>
+        <v>899</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6400522127514705</v>
+        <v>0.9642509780824184</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9516912699909881</v>
+        <v>1.503491386887617</v>
       </c>
       <c r="F152" t="n">
-        <v>763</v>
+        <v>899</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04151746013667434</v>
+        <v>0.06125213322229683</v>
       </c>
       <c r="H152" t="n">
-        <v>0.680554619175382</v>
+        <v>1.014438178972341</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0243505536345765</v>
+        <v>0.03415788908023387</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1994059961289167</v>
+        <v>0.3864430438261479</v>
       </c>
       <c r="K152" t="n">
-        <v>0.001559475203976035</v>
+        <v>0.001896695233881474</v>
       </c>
     </row>
     <row r="153">
@@ -7045,11 +7045,11 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19228</v>
+        <v>20583</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>25.09899031114765</v>
+        <v>25.47505717689637</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -7070,31 +7070,31 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009103552438318729</v>
+        <v>0.005969660938717425</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2684994420269504</v>
+        <v>0.3151483800029382</v>
       </c>
       <c r="F154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09140386898070574</v>
+        <v>0.06966788426507264</v>
       </c>
       <c r="H154" t="n">
-        <v>0.08485169021878392</v>
+        <v>0.05788671446498483</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0491538509959355</v>
+        <v>0.03797912900336087</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03002431069035083</v>
+        <v>0.1407862012274563</v>
       </c>
       <c r="K154" t="n">
-        <v>0.003462606342509389</v>
+        <v>0.002292261458933353</v>
       </c>
     </row>
     <row r="155">
@@ -7105,31 +7105,31 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3121</v>
+        <v>2071</v>
       </c>
       <c r="D155" t="n">
-        <v>1.12050572107546</v>
+        <v>0.8473648831713945</v>
       </c>
       <c r="E155" t="n">
-        <v>1.734509963076562</v>
+        <v>1.335048723965883</v>
       </c>
       <c r="F155" t="n">
-        <v>3121</v>
+        <v>2071</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1536991130560637</v>
+        <v>0.1178232248639688</v>
       </c>
       <c r="H155" t="n">
-        <v>1.282699715346098</v>
+        <v>0.9557970311725512</v>
       </c>
       <c r="I155" t="n">
-        <v>0.140208464465104</v>
+        <v>0.09952518681529909</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1340241270372644</v>
+        <v>0.1456708554178476</v>
       </c>
       <c r="K155" t="n">
-        <v>0.005946924560703337</v>
+        <v>0.003941310802474618</v>
       </c>
     </row>
     <row r="156">
@@ -7140,31 +7140,31 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1614</v>
+        <v>1086</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5703285386553034</v>
+        <v>0.4469970987411216</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9589874399825931</v>
+        <v>0.7800964099587873</v>
       </c>
       <c r="F156" t="n">
-        <v>1614</v>
+        <v>1086</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1022271887632087</v>
+        <v>0.0812758426181972</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6550297868670896</v>
+        <v>0.5073198108002543</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05095622094813734</v>
+        <v>0.03942172054667026</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1389231845969334</v>
+        <v>0.1435505566187203</v>
       </c>
       <c r="K156" t="n">
-        <v>0.00309291563462466</v>
+        <v>0.002341029234230518</v>
       </c>
     </row>
     <row r="157">
@@ -7175,31 +7175,31 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01258286379743367</v>
+        <v>0.008206527214497328</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6159818629967049</v>
+        <v>0.3365933749591932</v>
       </c>
       <c r="F157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2210084167309105</v>
+        <v>0.1305184613447636</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1361105878604576</v>
+        <v>0.08078863623086363</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2053386758780107</v>
+        <v>0.09468469233252108</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03270603658165783</v>
+        <v>0.01763359981123358</v>
       </c>
       <c r="K157" t="n">
-        <v>0.005918195238336921</v>
+        <v>0.003638686961494386</v>
       </c>
     </row>
     <row r="158">
@@ -7210,31 +7210,31 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3792</v>
+        <v>2424</v>
       </c>
       <c r="D158" t="n">
-        <v>1.404939717031084</v>
+        <v>0.964698294410482</v>
       </c>
       <c r="E158" t="n">
-        <v>2.687838500016369</v>
+        <v>1.813487468985841</v>
       </c>
       <c r="F158" t="n">
-        <v>3792</v>
+        <v>2424</v>
       </c>
       <c r="G158" t="n">
-        <v>0.3455484855221584</v>
+        <v>0.2173012263374403</v>
       </c>
       <c r="H158" t="n">
-        <v>1.640071683796123</v>
+        <v>1.112130043446086</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4065986446803436</v>
+        <v>0.2159486531745642</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2654171210015193</v>
+        <v>0.2486396540189162</v>
       </c>
       <c r="K158" t="n">
-        <v>0.008516581729054451</v>
+        <v>0.00539286364801228</v>
       </c>
     </row>
     <row r="159">
@@ -7245,31 +7245,31 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2063</v>
+        <v>1324</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6813281055074185</v>
+        <v>0.5225435562897474</v>
       </c>
       <c r="E159" t="n">
-        <v>1.416030299966224</v>
+        <v>1.03212132898625</v>
       </c>
       <c r="F159" t="n">
-        <v>2063</v>
+        <v>1324</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2302373094717041</v>
+        <v>0.1439743670634925</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8082445990294218</v>
+        <v>0.6010418653022498</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1633718387456611</v>
+        <v>0.09288634220138192</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1977986764395609</v>
+        <v>0.1836536742048338</v>
       </c>
       <c r="K159" t="n">
-        <v>0.004681850550696254</v>
+        <v>0.002938625053502619</v>
       </c>
     </row>
     <row r="160">
@@ -7280,31 +7280,31 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1614</v>
+        <v>1086</v>
       </c>
       <c r="D160" t="n">
-        <v>1.853164551896043</v>
+        <v>1.275460159522481</v>
       </c>
       <c r="E160" t="n">
-        <v>2.58520767709706</v>
+        <v>1.854301262996159</v>
       </c>
       <c r="F160" t="n">
-        <v>1614</v>
+        <v>1086</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1068025802960619</v>
+        <v>0.08216513099614531</v>
       </c>
       <c r="H160" t="n">
-        <v>1.941795871010982</v>
+        <v>1.335889839800075</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05298645969014615</v>
+        <v>0.04056039359420538</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4709297119406983</v>
+        <v>0.3867169267032295</v>
       </c>
       <c r="K160" t="n">
-        <v>0.003371457452885807</v>
+        <v>0.002289940253831446</v>
       </c>
     </row>
     <row r="161">
@@ -7315,11 +7315,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21515</v>
+        <v>21632</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>25.25736249808688</v>
+        <v>25.14381222613156</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
@@ -7340,31 +7340,31 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004919428727589548</v>
+        <v>0.008006099960766733</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1577990569639951</v>
+        <v>0.2259317330317572</v>
       </c>
       <c r="F162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05396633071359247</v>
+        <v>0.07212701451499015</v>
       </c>
       <c r="H162" t="n">
-        <v>0.04911559191532433</v>
+        <v>0.08109613077249378</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02757017349358648</v>
+        <v>0.03537920559756458</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01954998436849564</v>
+        <v>0.02413586806505919</v>
       </c>
       <c r="K162" t="n">
-        <v>0.00199751416221261</v>
+        <v>0.003315122448839247</v>
       </c>
     </row>
     <row r="163">
@@ -7375,31 +7375,31 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1540</v>
+        <v>2917</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5978413628181443</v>
+        <v>0.9589917089324445</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9409232039470226</v>
+        <v>1.463647556956857</v>
       </c>
       <c r="F163" t="n">
-        <v>1540</v>
+        <v>2917</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07824698381591588</v>
+        <v>0.1121615937445313</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6767186383949593</v>
+        <v>1.109123752336018</v>
       </c>
       <c r="I163" t="n">
-        <v>0.06588283530436456</v>
+        <v>0.1037290778476745</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1083188655320555</v>
+        <v>0.1163900237297639</v>
       </c>
       <c r="K163" t="n">
-        <v>0.00293217389844358</v>
+        <v>0.005643032607622445</v>
       </c>
     </row>
     <row r="164">
@@ -7410,31 +7410,31 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>854</v>
+        <v>1687</v>
       </c>
       <c r="D164" t="n">
-        <v>0.342518487945199</v>
+        <v>0.5423830364597961</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5976954810321331</v>
+        <v>0.9914728589355946</v>
       </c>
       <c r="F164" t="n">
-        <v>854</v>
+        <v>1687</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05595324432943016</v>
+        <v>0.07758577400818467</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3883223485900089</v>
+        <v>0.6260871553095058</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0310910630505532</v>
+        <v>0.0394372675800696</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1160084027796984</v>
+        <v>0.2354644007282332</v>
       </c>
       <c r="K164" t="n">
-        <v>0.001651724567636847</v>
+        <v>0.003173445584252477</v>
       </c>
     </row>
     <row r="165">
@@ -7445,31 +7445,31 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="D165" t="n">
-        <v>0.007448670105077326</v>
+        <v>0.01668113062623888</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3369598860153928</v>
+        <v>0.8866282890085131</v>
       </c>
       <c r="F165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1235673000337556</v>
+        <v>0.291204210370779</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07608189631719142</v>
+        <v>0.1791261846665293</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1089997492963448</v>
+        <v>0.3409610523376614</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01684976438991725</v>
+        <v>0.04678850632626563</v>
       </c>
       <c r="K165" t="n">
-        <v>0.003277891781181097</v>
+        <v>0.007283105631358922</v>
       </c>
     </row>
     <row r="166">
@@ -7480,31 +7480,31 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1714</v>
+        <v>4619</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6587544297799468</v>
+        <v>1.391861440148205</v>
       </c>
       <c r="E166" t="n">
-        <v>1.292150906985626</v>
+        <v>2.963044120930135</v>
       </c>
       <c r="F166" t="n">
-        <v>1714</v>
+        <v>4619</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1544947122456506</v>
+        <v>0.4100360455922782</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7597241580951959</v>
+        <v>1.678267170442268</v>
       </c>
       <c r="I166" t="n">
-        <v>0.1636938535375521</v>
+        <v>0.5944454298587516</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2006029919721186</v>
+        <v>0.2429119665175676</v>
       </c>
       <c r="K166" t="n">
-        <v>0.003891746280714869</v>
+        <v>0.01003874803427607</v>
       </c>
     </row>
     <row r="167">
@@ -7515,31 +7515,31 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>997</v>
+        <v>2902</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5088611417450011</v>
+        <v>0.8501561356242746</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9149909180123359</v>
+        <v>1.875943780061789</v>
       </c>
       <c r="F167" t="n">
-        <v>997</v>
+        <v>2902</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1105167173082009</v>
+        <v>0.3158581148600206</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5700303826015443</v>
+        <v>1.027866944903508</v>
       </c>
       <c r="I167" t="n">
-        <v>0.07655092712957412</v>
+        <v>0.3227422004565597</v>
       </c>
       <c r="J167" t="n">
-        <v>0.149872089503333</v>
+        <v>0.1861690657678992</v>
       </c>
       <c r="K167" t="n">
-        <v>0.002294596051797271</v>
+        <v>0.006200321135111153</v>
       </c>
     </row>
     <row r="168">
@@ -7550,31 +7550,31 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>854</v>
+        <v>1687</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8422252560267225</v>
+        <v>1.515212652622722</v>
       </c>
       <c r="E168" t="n">
-        <v>1.289380867034197</v>
+        <v>2.003386709955521</v>
       </c>
       <c r="F168" t="n">
-        <v>854</v>
+        <v>1687</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05750032514333725</v>
+        <v>0.07997117983177304</v>
       </c>
       <c r="H168" t="n">
-        <v>0.888897615717724</v>
+        <v>1.601537925074808</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0317830431740731</v>
+        <v>0.04167584446258843</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3041535575175658</v>
+        <v>0.2671102585736662</v>
       </c>
       <c r="K168" t="n">
-        <v>0.002148373518139124</v>
+        <v>0.003396941698156297</v>
       </c>
     </row>
     <row r="169">
@@ -7585,11 +7585,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16186</v>
+        <v>20902</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>25.41743866598699</v>
+        <v>25.84259792405646</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -7610,31 +7610,31 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D170" t="n">
-        <v>0.004003586946055293</v>
+        <v>0.007008482236415148</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1172548331087455</v>
+        <v>0.2199834539787844</v>
       </c>
       <c r="F170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03670595388393849</v>
+        <v>0.07011609547771513</v>
       </c>
       <c r="H170" t="n">
-        <v>0.04067439644131809</v>
+        <v>0.06968243105802685</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01907270250376314</v>
+        <v>0.04155119170900434</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0146002578549087</v>
+        <v>0.02780397015158087</v>
       </c>
       <c r="K170" t="n">
-        <v>0.001683365553617477</v>
+        <v>0.00271204998716712</v>
       </c>
     </row>
     <row r="171">
@@ -7645,31 +7645,31 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1336</v>
+        <v>2248</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5098320071119815</v>
+        <v>0.872396070160903</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7635842480231076</v>
+        <v>1.380556492018513</v>
       </c>
       <c r="F171" t="n">
-        <v>1336</v>
+        <v>2248</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05497929907869548</v>
+        <v>0.1130607025697827</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5763563469517976</v>
+        <v>0.9987038938561454</v>
       </c>
       <c r="I171" t="n">
-        <v>0.05062240653205663</v>
+        <v>0.1077738804742694</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07183519843965769</v>
+        <v>0.1436898172833025</v>
       </c>
       <c r="K171" t="n">
-        <v>0.00257627316750586</v>
+        <v>0.004310334683395922</v>
       </c>
     </row>
     <row r="172">
@@ -7680,31 +7680,31 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>751</v>
+        <v>1247</v>
       </c>
       <c r="D172" t="n">
-        <v>0.283362704096362</v>
+        <v>0.412978399079293</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4635214079171419</v>
+        <v>0.7532930939923972</v>
       </c>
       <c r="F172" t="n">
-        <v>751</v>
+        <v>1247</v>
       </c>
       <c r="G172" t="n">
-        <v>0.03884285513777286</v>
+        <v>0.07385017280466855</v>
       </c>
       <c r="H172" t="n">
-        <v>0.3213095982791856</v>
+        <v>0.4790770132094622</v>
       </c>
       <c r="I172" t="n">
-        <v>0.02092178468592465</v>
+        <v>0.04490671679377556</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07694131077732891</v>
+        <v>0.1458689380669966</v>
       </c>
       <c r="K172" t="n">
-        <v>0.001475783181376755</v>
+        <v>0.002347899135202169</v>
       </c>
     </row>
     <row r="173">
@@ -7715,31 +7715,31 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="D173" t="n">
-        <v>0.007223075022920966</v>
+        <v>0.01087311666924506</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3204071039799601</v>
+        <v>0.5169149580178782</v>
       </c>
       <c r="F173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1161185392411426</v>
+        <v>0.1800428819842637</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07354532566387206</v>
+        <v>0.1095888572745025</v>
       </c>
       <c r="I173" t="n">
-        <v>0.1036706537706777</v>
+        <v>0.1795910437358543</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01590405614115298</v>
+        <v>0.03108681691810489</v>
       </c>
       <c r="K173" t="n">
-        <v>0.003113096114248037</v>
+        <v>0.004452680936083198</v>
       </c>
     </row>
     <row r="174">
@@ -7750,31 +7750,31 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2076</v>
+        <v>2782</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7833453313214704</v>
+        <v>0.9568769555771723</v>
       </c>
       <c r="E174" t="n">
-        <v>1.480944047914818</v>
+        <v>1.960384335019626</v>
       </c>
       <c r="F174" t="n">
-        <v>2076</v>
+        <v>2782</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1831272676354274</v>
+        <v>0.2492614380316809</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9061467822175473</v>
+        <v>1.129181986674666</v>
       </c>
       <c r="I174" t="n">
-        <v>0.22579528123606</v>
+        <v>0.3108190891798586</v>
       </c>
       <c r="J174" t="n">
-        <v>0.149387251585722</v>
+        <v>0.2486546185100451</v>
       </c>
       <c r="K174" t="n">
-        <v>0.004511926672421396</v>
+        <v>0.00606978836003691</v>
       </c>
     </row>
     <row r="175">
@@ -7785,31 +7785,31 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1208</v>
+        <v>1629</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4655272836098447</v>
+        <v>0.4914548938395455</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9021651339717209</v>
+        <v>1.131616179016419</v>
       </c>
       <c r="F175" t="n">
-        <v>1208</v>
+        <v>1629</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1295930340420455</v>
+        <v>0.1847996298456565</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5361870321212336</v>
+        <v>0.5942592194769531</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1074021912645549</v>
+        <v>0.1425649345619604</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1194050689227879</v>
+        <v>0.1961163410451263</v>
       </c>
       <c r="K175" t="n">
-        <v>0.002633131924085319</v>
+        <v>0.003687899210490286</v>
       </c>
     </row>
     <row r="176">
@@ -7820,31 +7820,31 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>751</v>
+        <v>1247</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5730829540407285</v>
+        <v>1.223726044758223</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8232589720282704</v>
+        <v>1.80182817496825</v>
       </c>
       <c r="F176" t="n">
-        <v>751</v>
+        <v>1247</v>
       </c>
       <c r="G176" t="n">
-        <v>0.03950834239367396</v>
+        <v>0.07870244921650738</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6112619112245739</v>
+        <v>1.291584614780731</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0213500167010352</v>
+        <v>0.04687029647175223</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1454313456779346</v>
+        <v>0.3748387391678989</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001509532914496958</v>
+        <v>0.002551739453338087</v>
       </c>
     </row>
     <row r="177">
@@ -7855,11 +7855,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18635</v>
+        <v>19816</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>25.22874373674858</v>
+        <v>25.26280625769868</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -7880,31 +7880,31 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005938193295150995</v>
+        <v>0.007662646356038749</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2233517450513318</v>
+        <v>0.241192567977123</v>
       </c>
       <c r="F178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08074785873759538</v>
+        <v>0.0827590593835339</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06076599028892815</v>
+        <v>0.07876937952823937</v>
       </c>
       <c r="I178" t="n">
-        <v>0.04513693321496248</v>
+        <v>0.04157480550929904</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0274849048582837</v>
+        <v>0.02559313108213246</v>
       </c>
       <c r="K178" t="n">
-        <v>0.002401055651716888</v>
+        <v>0.003230028669349849</v>
       </c>
     </row>
     <row r="179">
@@ -7915,31 +7915,31 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2424</v>
+        <v>2889</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9330217867391184</v>
+        <v>0.9990627330262214</v>
       </c>
       <c r="E179" t="n">
-        <v>1.53876925399527</v>
+        <v>1.537778315017931</v>
       </c>
       <c r="F179" t="n">
-        <v>2424</v>
+        <v>2889</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1555799158522859</v>
+        <v>0.1266336695989594</v>
       </c>
       <c r="H179" t="n">
-        <v>1.060949812293984</v>
+        <v>1.143799841753207</v>
       </c>
       <c r="I179" t="n">
-        <v>0.1399047042941675</v>
+        <v>0.1155783538706601</v>
       </c>
       <c r="J179" t="n">
-        <v>0.163712750421837</v>
+        <v>0.1295372836757451</v>
       </c>
       <c r="K179" t="n">
-        <v>0.004628007882274687</v>
+        <v>0.005883446545340121</v>
       </c>
     </row>
     <row r="180">
@@ -7950,31 +7950,31 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1173</v>
+        <v>1584</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4811225114390254</v>
+        <v>0.52648029406555</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8591164159588516</v>
+        <v>0.8864450940163806</v>
       </c>
       <c r="F180" t="n">
-        <v>1173</v>
+        <v>1584</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0986605619546026</v>
+        <v>0.0875685604987666</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5456324190599844</v>
+        <v>0.6063116956502199</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04802873800508678</v>
+        <v>0.04535263672005385</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1580801245290786</v>
+        <v>0.1355323678581044</v>
       </c>
       <c r="K180" t="n">
-        <v>0.002271714387461543</v>
+        <v>0.00295525835826993</v>
       </c>
     </row>
     <row r="181">
@@ -7985,31 +7985,31 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="D181" t="n">
-        <v>0.007695160456933081</v>
+        <v>0.01457019860390574</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2968847710872069</v>
+        <v>0.7155970840249211</v>
       </c>
       <c r="F181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1174272367497906</v>
+        <v>0.2404423672705889</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07332873228006065</v>
+        <v>0.1534235328435898</v>
       </c>
       <c r="I181" t="n">
-        <v>0.07928389927837998</v>
+        <v>0.2608378020813689</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01577357156202197</v>
+        <v>0.03784237080253661</v>
       </c>
       <c r="K181" t="n">
-        <v>0.003233670606277883</v>
+        <v>0.006198911811225116</v>
       </c>
     </row>
     <row r="182">
@@ -8020,31 +8020,31 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2514</v>
+        <v>3832</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9686125718289986</v>
+        <v>1.248196061933413</v>
       </c>
       <c r="E182" t="n">
-        <v>1.880375710083172</v>
+        <v>2.699315731995739</v>
       </c>
       <c r="F182" t="n">
-        <v>2514</v>
+        <v>3832</v>
       </c>
       <c r="G182" t="n">
-        <v>0.2278725526994094</v>
+        <v>0.47366475709714</v>
       </c>
       <c r="H182" t="n">
-        <v>1.119259461178444</v>
+        <v>1.485948769957758</v>
       </c>
       <c r="I182" t="n">
-        <v>0.2187997900182381</v>
+        <v>0.4492020298494026</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2943206571508199</v>
+        <v>0.2596621692646295</v>
       </c>
       <c r="K182" t="n">
-        <v>0.005835506715811789</v>
+        <v>0.008206933620385826</v>
       </c>
     </row>
     <row r="183">
@@ -8055,31 +8055,31 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1238</v>
+        <v>2219</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5085836783982813</v>
+        <v>0.7155033914605156</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9991645290283486</v>
+        <v>1.525209429091774</v>
       </c>
       <c r="F183" t="n">
-        <v>1238</v>
+        <v>2219</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1366620064945891</v>
+        <v>0.2452137501677498</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5835558021208271</v>
+        <v>0.853752673137933</v>
       </c>
       <c r="I183" t="n">
-        <v>0.07118075690232217</v>
+        <v>0.215117416693829</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1979941920144483</v>
+        <v>0.1932106242747977</v>
       </c>
       <c r="K183" t="n">
-        <v>0.002879863255657256</v>
+        <v>0.004821060341782868</v>
       </c>
     </row>
     <row r="184">
@@ -8090,31 +8090,31 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1173</v>
+        <v>1584</v>
       </c>
       <c r="D184" t="n">
-        <v>1.519085845560767</v>
+        <v>1.452639187220484</v>
       </c>
       <c r="E184" t="n">
-        <v>2.276138729997911</v>
+        <v>2.16680439200718</v>
       </c>
       <c r="F184" t="n">
-        <v>1173</v>
+        <v>1584</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1012939816573635</v>
+        <v>0.0930418367497623</v>
       </c>
       <c r="H184" t="n">
-        <v>1.585714758257382</v>
+        <v>1.538425806327723</v>
       </c>
       <c r="I184" t="n">
-        <v>0.04928530263714492</v>
+        <v>0.04791002988349646</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5305975860683247</v>
+        <v>0.4748079233104363</v>
       </c>
       <c r="K184" t="n">
-        <v>0.002451070235110819</v>
+        <v>0.003333480446599424</v>
       </c>
     </row>
     <row r="185">
@@ -8125,11 +8125,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21345</v>
+        <v>21084</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>25.05129610700533</v>
+        <v>25.71206705376972</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -8150,31 +8150,31 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007772485259920359</v>
+        <v>0.005924176424741745</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2468984690494835</v>
+        <v>0.1872963909991086</v>
       </c>
       <c r="F186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08052280126139522</v>
+        <v>0.06331191991921514</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08168007747735828</v>
+        <v>0.05718433391302824</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04328821320086718</v>
+        <v>0.03480326989665627</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02852460986468941</v>
+        <v>0.0231062559178099</v>
       </c>
       <c r="K186" t="n">
-        <v>0.003421628731302917</v>
+        <v>0.002283511217683554</v>
       </c>
     </row>
     <row r="187">
@@ -8185,31 +8185,31 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3099</v>
+        <v>1899</v>
       </c>
       <c r="D187" t="n">
-        <v>1.024898485047743</v>
+        <v>0.8242938016774133</v>
       </c>
       <c r="E187" t="n">
-        <v>1.582490531960502</v>
+        <v>1.253071711049415</v>
       </c>
       <c r="F187" t="n">
-        <v>3099</v>
+        <v>1899</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1323026249883696</v>
+        <v>0.1037381953792647</v>
       </c>
       <c r="H187" t="n">
-        <v>1.1855823158985</v>
+        <v>0.9277564164949581</v>
       </c>
       <c r="I187" t="n">
-        <v>0.1256199320778251</v>
+        <v>0.09541785786859691</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1160473668714985</v>
+        <v>0.1112675943877548</v>
       </c>
       <c r="K187" t="n">
-        <v>0.006005241302773356</v>
+        <v>0.004005748662166297</v>
       </c>
     </row>
     <row r="188">
@@ -8220,31 +8220,31 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1666</v>
+        <v>1015</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5224598064087331</v>
+        <v>0.4162951514590532</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8762488230131567</v>
+        <v>0.7083340409444645</v>
       </c>
       <c r="F188" t="n">
-        <v>1666</v>
+        <v>1015</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09070712106768042</v>
+        <v>0.06968602503184229</v>
       </c>
       <c r="H188" t="n">
-        <v>0.6088613646570593</v>
+        <v>0.4707225031452253</v>
       </c>
       <c r="I188" t="n">
-        <v>0.04796968773007393</v>
+        <v>0.03770570433698595</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1165942234219983</v>
+        <v>0.1226233899360523</v>
       </c>
       <c r="K188" t="n">
-        <v>0.003150565549731255</v>
+        <v>0.001942436560057104</v>
       </c>
     </row>
     <row r="189">
@@ -8255,31 +8255,31 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01604800415225327</v>
+        <v>0.0088660140754655</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9048631980549544</v>
+        <v>0.383467377978377</v>
       </c>
       <c r="F189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2820273669203743</v>
+        <v>0.1440744093852118</v>
       </c>
       <c r="H189" t="n">
-        <v>0.1743268655845895</v>
+        <v>0.08883644733577967</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3696140386164188</v>
+        <v>0.1164142064517364</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05243955831974745</v>
+        <v>0.02055834291968495</v>
       </c>
       <c r="K189" t="n">
-        <v>0.007446971721947193</v>
+        <v>0.00367969018407166</v>
       </c>
     </row>
     <row r="190">
@@ -8290,31 +8290,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4829</v>
+        <v>2277</v>
       </c>
       <c r="D190" t="n">
-        <v>1.490348445018753</v>
+        <v>0.9680330550763756</v>
       </c>
       <c r="E190" t="n">
-        <v>3.191569346003234</v>
+        <v>1.809459023992531</v>
       </c>
       <c r="F190" t="n">
-        <v>4829</v>
+        <v>2277</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4311986654065549</v>
+        <v>0.2142424785997719</v>
       </c>
       <c r="H190" t="n">
-        <v>1.788569422438741</v>
+        <v>1.116827122867107</v>
       </c>
       <c r="I190" t="n">
-        <v>0.6484945783158764</v>
+        <v>0.2291686134412885</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2845136078540236</v>
+        <v>0.2302249195054173</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0106600783765316</v>
+        <v>0.005252377712167799</v>
       </c>
     </row>
     <row r="191">
@@ -8325,31 +8325,31 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2704</v>
+        <v>1243</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7293390491977334</v>
+        <v>0.6934965703403577</v>
       </c>
       <c r="E191" t="n">
-        <v>1.757640478084795</v>
+        <v>1.196202355902642</v>
       </c>
       <c r="F191" t="n">
-        <v>2704</v>
+        <v>1243</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2988410238176584</v>
+        <v>0.1399680661270395</v>
       </c>
       <c r="H191" t="n">
-        <v>0.8954017211217433</v>
+        <v>0.7711540241725743</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3185737142339349</v>
+        <v>0.09077000617980957</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2231200230307877</v>
+        <v>0.1842569939326495</v>
       </c>
       <c r="K191" t="n">
-        <v>0.00608293351251632</v>
+        <v>0.00274276826530695</v>
       </c>
     </row>
     <row r="192">
@@ -8360,31 +8360,31 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1666</v>
+        <v>1015</v>
       </c>
       <c r="D192" t="n">
-        <v>1.424579607089981</v>
+        <v>1.159709686064161</v>
       </c>
       <c r="E192" t="n">
-        <v>1.92730926303193</v>
+        <v>1.716095761046745</v>
       </c>
       <c r="F192" t="n">
-        <v>1666</v>
+        <v>1015</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09419216320384294</v>
+        <v>0.07188067818060517</v>
       </c>
       <c r="H192" t="n">
-        <v>1.513403920806013</v>
+        <v>1.21590380591806</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04950083035510033</v>
+        <v>0.03904364362824708</v>
       </c>
       <c r="J192" t="n">
-        <v>0.256572044105269</v>
+        <v>0.3811139190802351</v>
       </c>
       <c r="K192" t="n">
-        <v>0.004146507824771106</v>
+        <v>0.002129085245542228</v>
       </c>
     </row>
     <row r="193">
@@ -8395,11 +8395,11 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22290</v>
+        <v>19008</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>25.73054004099686</v>
+        <v>25.67450976115651</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -8420,31 +8420,31 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00566960102878511</v>
+        <v>0.00666253489907831</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1870989149902016</v>
+        <v>0.2025477339047939</v>
       </c>
       <c r="F194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06066473538521677</v>
+        <v>0.06719323329161853</v>
       </c>
       <c r="H194" t="n">
-        <v>0.0582122498890385</v>
+        <v>0.06633058260194957</v>
       </c>
       <c r="I194" t="n">
-        <v>0.03541952965315431</v>
+        <v>0.03539974323939532</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0235744749661535</v>
+        <v>0.02309483836870641</v>
       </c>
       <c r="K194" t="n">
-        <v>0.00246091466397047</v>
+        <v>0.002705550868995488</v>
       </c>
     </row>
     <row r="195">
@@ -8455,31 +8455,31 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2063</v>
+        <v>2325</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7492653074441478</v>
+        <v>0.8562394774053246</v>
       </c>
       <c r="E195" t="n">
-        <v>1.171231054933742</v>
+        <v>1.295689080958255</v>
       </c>
       <c r="F195" t="n">
-        <v>2063</v>
+        <v>2325</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09833125316072255</v>
+        <v>0.1034330992260948</v>
       </c>
       <c r="H195" t="n">
-        <v>0.8548262681579217</v>
+        <v>0.9740220177918673</v>
       </c>
       <c r="I195" t="n">
-        <v>0.08907904929947108</v>
+        <v>0.09174390009138733</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1136399821843952</v>
+        <v>0.1083872123854235</v>
       </c>
       <c r="K195" t="n">
-        <v>0.003983267350122333</v>
+        <v>0.004400927457027137</v>
       </c>
     </row>
     <row r="196">
@@ -8490,31 +8490,31 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1144</v>
+        <v>1333</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4161994305904955</v>
+        <v>0.4904621262103319</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7060398139292374</v>
+        <v>0.7977040100377053</v>
       </c>
       <c r="F196" t="n">
-        <v>1144</v>
+        <v>1333</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06805815722327679</v>
+        <v>0.07572822738438845</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4759234082885087</v>
+        <v>0.5613099779002368</v>
       </c>
       <c r="I196" t="n">
-        <v>0.03731168224476278</v>
+        <v>0.04121490789111704</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1163351689465344</v>
+        <v>0.1090965375769883</v>
       </c>
       <c r="K196" t="n">
-        <v>0.002201988478191197</v>
+        <v>0.002818386419676244</v>
       </c>
     </row>
     <row r="197">
@@ -8525,31 +8525,31 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01030319358687848</v>
+        <v>0.01152001740410924</v>
       </c>
       <c r="E197" t="n">
-        <v>0.5017571250209585</v>
+        <v>0.5552086640382186</v>
       </c>
       <c r="F197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1749605988152325</v>
+        <v>0.1956217286642641</v>
       </c>
       <c r="H197" t="n">
-        <v>0.10952180379536</v>
+        <v>0.1223895251750946</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1722170365974307</v>
+        <v>0.1884904005564749</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02856306405737996</v>
+        <v>0.02932538674212992</v>
       </c>
       <c r="K197" t="n">
-        <v>0.004670977941714227</v>
+        <v>0.00499483966268599</v>
       </c>
     </row>
     <row r="198">
@@ -8560,31 +8560,31 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3084</v>
+        <v>3334</v>
       </c>
       <c r="D198" t="n">
-        <v>1.059551374986768</v>
+        <v>1.141926913522184</v>
       </c>
       <c r="E198" t="n">
-        <v>2.180950858048163</v>
+        <v>2.240932582993992</v>
       </c>
       <c r="F198" t="n">
-        <v>3084</v>
+        <v>3334</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2781307549448684</v>
+        <v>0.2910080396104604</v>
       </c>
       <c r="H198" t="n">
-        <v>1.247613782063127</v>
+        <v>1.338242852827534</v>
       </c>
       <c r="I198" t="n">
-        <v>0.3459555662702769</v>
+        <v>0.3517602883512154</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2844777271384373</v>
+        <v>0.2326616114005446</v>
       </c>
       <c r="K198" t="n">
-        <v>0.006851874757558107</v>
+        <v>0.007387471967376769</v>
       </c>
     </row>
     <row r="199">
@@ -8595,31 +8595,31 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1720</v>
+        <v>1979</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6076157410861924</v>
+        <v>0.7994420886971056</v>
       </c>
       <c r="E199" t="n">
-        <v>1.26897657988593</v>
+        <v>1.487614843063056</v>
       </c>
       <c r="F199" t="n">
-        <v>1720</v>
+        <v>1979</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1906280828407034</v>
+        <v>0.2117551940027624</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7117470694938675</v>
+        <v>0.9159736954607069</v>
       </c>
       <c r="I199" t="n">
-        <v>0.1485381157835945</v>
+        <v>0.1677841092459857</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2043183782370761</v>
+        <v>0.1757731643738225</v>
       </c>
       <c r="K199" t="n">
-        <v>0.00384751835372299</v>
+        <v>0.004266828414984047</v>
       </c>
     </row>
     <row r="200">
@@ -8630,31 +8630,31 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1144</v>
+        <v>1333</v>
       </c>
       <c r="D200" t="n">
-        <v>1.141436035046354</v>
+        <v>1.387594036874361</v>
       </c>
       <c r="E200" t="n">
-        <v>1.600225285976194</v>
+        <v>1.862513483967632</v>
       </c>
       <c r="F200" t="n">
-        <v>1144</v>
+        <v>1333</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07198691053781658</v>
+        <v>0.07692175847478211</v>
       </c>
       <c r="H200" t="n">
-        <v>1.205297243548557</v>
+        <v>1.457877492066473</v>
       </c>
       <c r="I200" t="n">
-        <v>0.03888294764328748</v>
+        <v>0.04255563591141254</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2744531760690734</v>
+        <v>0.2743625831790268</v>
       </c>
       <c r="K200" t="n">
-        <v>0.002907782793045044</v>
+        <v>0.002759383176453412</v>
       </c>
     </row>
     <row r="201">
@@ -8665,11 +8665,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>22508</v>
+        <v>19079</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>25.21233792114072</v>
+        <v>24.95402143686078</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
@@ -8690,31 +8690,31 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006583200031891465</v>
+        <v>0.007001483938656747</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2265050257509574</v>
+        <v>0.2315125763649121</v>
       </c>
       <c r="F202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07049435556866229</v>
+        <v>0.07103568371385335</v>
       </c>
       <c r="H202" t="n">
-        <v>0.0742710695322603</v>
+        <v>0.07631595976185053</v>
       </c>
       <c r="I202" t="n">
-        <v>0.03809432019479573</v>
+        <v>0.03803037796635181</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03313412415329367</v>
+        <v>0.03528356262482703</v>
       </c>
       <c r="K202" t="n">
-        <v>0.00277170155197382</v>
+        <v>0.002783588790334761</v>
       </c>
     </row>
     <row r="203">
@@ -8725,31 +8725,31 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2316.88</v>
+        <v>2317.36</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8746360963629559</v>
+        <v>0.8693261841218919</v>
       </c>
       <c r="E203" t="n">
-        <v>1.368697442617267</v>
+        <v>1.365171698075719</v>
       </c>
       <c r="F203" t="n">
-        <v>2316.88</v>
+        <v>2317.36</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1163145687105134</v>
+        <v>0.1105276960041374</v>
       </c>
       <c r="H203" t="n">
-        <v>1.002740877200849</v>
+        <v>0.9974432388832792</v>
       </c>
       <c r="I203" t="n">
-        <v>0.1004364875238389</v>
+        <v>0.09891127452254295</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1319205624097958</v>
+        <v>0.1403964055329561</v>
       </c>
       <c r="K203" t="n">
-        <v>0.004442152236588299</v>
+        <v>0.00449003669898957</v>
       </c>
     </row>
     <row r="204">
@@ -8760,31 +8760,31 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1248.76</v>
+        <v>1273.76</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4473309110151604</v>
+        <v>0.4659366548666731</v>
       </c>
       <c r="E204" t="n">
-        <v>0.793898550644517</v>
+        <v>0.8115113542834297</v>
       </c>
       <c r="F204" t="n">
-        <v>1248.76</v>
+        <v>1273.76</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07568936377763748</v>
+        <v>0.07580222445074469</v>
       </c>
       <c r="H204" t="n">
-        <v>0.5201513790432364</v>
+        <v>0.5401695614214986</v>
       </c>
       <c r="I204" t="n">
-        <v>0.04060061862226576</v>
+        <v>0.04081227040383965</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1482064237073064</v>
+        <v>0.1450314829871059</v>
       </c>
       <c r="K204" t="n">
-        <v>0.002408620002679527</v>
+        <v>0.002469447171315551</v>
       </c>
     </row>
     <row r="205">
@@ -8795,31 +8795,31 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.01604142045602202</v>
+        <v>0.01207327062264085</v>
       </c>
       <c r="E205" t="n">
-        <v>0.622846406493336</v>
+        <v>0.6067122001759708</v>
       </c>
       <c r="F205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2153065300732851</v>
+        <v>0.2025450223498046</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1386614818125963</v>
+        <v>0.1351986901275813</v>
       </c>
       <c r="I205" t="n">
-        <v>0.2143338484689593</v>
+        <v>0.2184855695581064</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03583637614734471</v>
+        <v>0.03140643261838704</v>
       </c>
       <c r="K205" t="n">
-        <v>0.005253675100393593</v>
+        <v>0.005072074038907886</v>
       </c>
     </row>
     <row r="206">
@@ -8830,31 +8830,31 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3002.88</v>
+        <v>2971.8</v>
       </c>
       <c r="D206" t="n">
-        <v>1.081844599940814</v>
+        <v>1.037430167999118</v>
       </c>
       <c r="E206" t="n">
-        <v>2.15918582403101</v>
+        <v>2.106282987655141</v>
       </c>
       <c r="F206" t="n">
-        <v>3002.88</v>
+        <v>2971.8</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2772736964840442</v>
+        <v>0.2890903635835275</v>
       </c>
       <c r="H206" t="n">
-        <v>1.267972635808401</v>
+        <v>1.221238753763028</v>
       </c>
       <c r="I206" t="n">
-        <v>0.3324088913854212</v>
+        <v>0.3245933552272618</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2575113447150216</v>
+        <v>0.2471837347466499</v>
       </c>
       <c r="K206" t="n">
-        <v>0.006734419870190323</v>
+        <v>0.006526229442097247</v>
       </c>
     </row>
     <row r="207">
@@ -8865,31 +8865,31 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1722.12</v>
+        <v>1740.04</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5768065736815333</v>
+        <v>0.590065994639881</v>
       </c>
       <c r="E207" t="n">
-        <v>1.229721102765761</v>
+        <v>1.254175259321928</v>
       </c>
       <c r="F207" t="n">
-        <v>1722.12</v>
+        <v>1740.04</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1909602287923917</v>
+        <v>0.192242861026898</v>
       </c>
       <c r="H207" t="n">
-        <v>0.6824520110897719</v>
+        <v>0.6970551160443574</v>
       </c>
       <c r="I207" t="n">
-        <v>0.1548062400659546</v>
+        <v>0.1569849849259481</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1877391260350123</v>
+        <v>0.1937177151953801</v>
       </c>
       <c r="K207" t="n">
-        <v>0.003878260664641857</v>
+        <v>0.003828048682771623</v>
       </c>
     </row>
     <row r="208">
@@ -8900,31 +8900,31 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1248.76</v>
+        <v>1273.76</v>
       </c>
       <c r="D208" t="n">
-        <v>1.245535182608291</v>
+        <v>1.280019812202081</v>
       </c>
       <c r="E208" t="n">
-        <v>1.798830637959763</v>
+        <v>1.851001522154547</v>
       </c>
       <c r="F208" t="n">
-        <v>1248.76</v>
+        <v>1273.76</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07812110868282617</v>
+        <v>0.07821802483871579</v>
       </c>
       <c r="H208" t="n">
-        <v>1.3134609245928</v>
+        <v>1.349247938669287</v>
       </c>
       <c r="I208" t="n">
-        <v>0.0417043759021908</v>
+        <v>0.04257244779262691</v>
       </c>
       <c r="J208" t="n">
-        <v>0.3556532872701064</v>
+        <v>0.3707960883807391</v>
       </c>
       <c r="K208" t="n">
-        <v>0.002740669739432633</v>
+        <v>0.002645462309010327</v>
       </c>
     </row>
     <row r="209">
@@ -8935,11 +8935,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>20684.72</v>
+        <v>20594.4</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>25.45964766086079</v>
+        <v>25.51779833084438</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
